--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -4,10 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stockData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="daily" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="60min" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5min" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -20,6 +22,7 @@
   <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -40,6 +43,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="10"/>
@@ -72,7 +76,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -455,537 +462,695 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="J1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Z8" activeCellId="0" pane="topLeft" sqref="Z8"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>m0</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>m1</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>m4</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>m5</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>m6</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>m7</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="5" t="inlineStr">
         <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="5" t="inlineStr">
         <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="5" t="inlineStr">
         <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="5" t="inlineStr">
         <is>
           <t>w0</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="5" t="inlineStr">
         <is>
           <t>w1</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="5" t="inlineStr">
         <is>
           <t>w2</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="5" t="inlineStr">
         <is>
           <t>w3</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="5" t="inlineStr">
         <is>
           <t>w4</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="W1" s="5" t="inlineStr">
         <is>
           <t>w5</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="X1" s="5" t="inlineStr">
         <is>
           <t>w6</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Y1" s="5" t="inlineStr">
         <is>
           <t>w7</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="2" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>NIO</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.1409390629431482</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.01106994787452712</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.0009638351215188474</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>0.004260056751199901</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.0107196465601912</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>0.001714354981946688</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>1.256438897757982e-10</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>9.324736549418949e-11</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>0.005121796925822195</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>-0.51151695790439</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>0.04543535145661821</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>-0.1429511322129842</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>-0.2105190978883724</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>0.04759920921230281</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>0.1131717505081041</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>-0.006948132450303703</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>4.605932408493332</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0.5260663229760557</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>0.07417559625062166</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>0.4363567602136209</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0.8291091249405735</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0.14997050625969</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>8.474918675618296e-09</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4.472112951580028e-09</v>
+      <c r="R2" s="3" t="n">
+        <v>0.1705487444437477</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0.1426130105838598</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0.1121617489438894</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0.09722115133313633</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>0.110456455058216</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>0.1051124257000614</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>0.1198055228101544</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>0.1420809411269349</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="3" s="4">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>TSLA</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.1509377355213447</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>0.04829205583879663</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.003967244396418783</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.01453355824323124</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.02485114489758947</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>0.005434399282194052</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>7.352085461773991e-10</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>5.273594266517581e-10</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="3" t="n">
         <v>0.009517786550298521</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>-2.349112636860576</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="3" t="n">
         <v>0.1521597684603392</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="3" t="n">
         <v>-0.5516617738005419</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="3" t="n">
         <v>-0.2967455595863266</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>0.161472894255981</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>-0.2022485898745222</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>-0.4317383272461738</v>
       </c>
-      <c r="R3" s="2" t="n">
-        <v>0.1769128217644066</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>0.1759515544502852</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>0.02042800468893765</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>0.1281033810719488</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>0.4119061521187575</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>0.04695758226974464</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>2.345700459927646e-09</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1.780768651216997e-09</v>
+      <c r="R3" s="3" t="n">
+        <v>0.2355375191423913</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0.1339113691802713</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>0.1126646699860898</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>0.08611165322652134</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>0.06256545940181563</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>0.08695590222156396</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>0.1431282108576752</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>0.1391252159836715</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="4" s="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>PLUG</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.139737681297814</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.08771038850914158</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.006456843100750385</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>0.0218109082869842</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.07006959456924344</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>0.009979574230356839</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>1.441592935345299e-10</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>7.519938481449504e-11</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="3" t="n">
         <v>-0.006868826760564582</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>-4.280086590864762</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <v>0.02546828206027066</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="3" t="n">
         <v>-1.007542051032072</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="3" t="n">
         <v>-1.487825978478411</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>0.03806583469283134</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>-0.02267335264380377</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>-0.05244860975406021</v>
       </c>
-      <c r="R4" s="2" t="n">
-        <v>0.02541062241507656</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0.1184424420429122</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0.01187977083857426</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0.09183400700715885</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0.2338879256913918</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0.02666865530232348</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>8.15401499329131e-07</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5.629730317418258e-08</v>
+      <c r="R4" s="3" t="n">
+        <v>0.4165813462087934</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>0.1523224364820338</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0.1305075871960828</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>0.08627099045866167</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>0.09721422086977258</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>0.1082798098612328</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>0.002353776623413573</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>0.006469832300009352</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="5" s="4">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>NKLA</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.1400185252141773</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.02410674020589887</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.001895446801812674</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>0.004439470328535895</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.01648532172998477</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>0.003570646128387971</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="3" t="n">
         <v>6.191425479028914e-09</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="3" t="n">
         <v>2.674109862407788e-10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="3" t="n">
         <v>-0.003629460444900821</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3" t="n">
         <v>-1.34219716588954</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="3" t="n">
         <v>-0.07312480113109572</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="3" t="n">
         <v>-0.2118434947924622</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="3" t="n">
         <v>-0.4047399872541825</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="3" t="n">
         <v>-0.06314359019593282</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="3" t="n">
         <v>0.05554449371410183</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="3" t="n">
         <v>-0.0009912682447493603</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.212168925827566</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.4001512828577631</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.04114465472976045</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.3547230863565333</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.4315167012238815</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.1040759855026474</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.848841764853279e-07</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4.158980673334732e-07</v>
+      <c r="R5" s="3" t="n">
+        <v>0.2249774323845742</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0.1642175746493672</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0.1437189204751534</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0.07490929489843506</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>0.128737288204179</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>0.1239254875859819</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>0.1225350439862598</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>0.01697895781604921</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="6" s="4">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>MSFT</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.1377744771738686</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.01077240239978401</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.0009791177603384398</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.003490125726474338</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.001241682024925196</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>0.001353478261000405</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="3" t="n">
         <v>5.019250107072721e-12</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="3" t="n">
         <v>3.415416791997129e-11</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="3" t="n">
         <v>0.001396272769249888</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="3" t="n">
         <v>-0.5338320807505512</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="3" t="n">
         <v>0.01644695307840659</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="3" t="n">
         <v>-0.1493885131128801</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="3" t="n">
         <v>0.009715207703908966</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="3" t="n">
         <v>0.01818046430218447</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="3" t="n">
         <v>0.05790247896986352</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="3" t="n">
         <v>0.06462436139213427</v>
       </c>
-      <c r="R6" t="n">
-        <v>7.359326971664219</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9491207598346963</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.08285476887894369</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.520053606192736</v>
-      </c>
-      <c r="V6" t="n">
-        <v>13.48739878085155</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.1843750663222114</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4.167207599625768e-08</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4.130059846794367e-08</v>
+      <c r="R6" s="3" t="n">
+        <v>0.2405660260351586</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>0.1871916114080155</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>0.1910250343757978</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>0.1439554320597602</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0.01689881577335669</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>0.1505446695753559</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>0.01928539008151347</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>0.0505330206910418</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="4">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>SNE</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.1390518612329022</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.0147110386237944</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.00138782395704841</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.004734652117552338</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>-0.0002874154348478644</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.001912574355548698</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>2.350205226318901e-10</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1.075817603716296e-09</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>6.863564669539238e-05</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>-0.742963482844535</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>-0.003199212426994573</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>-0.239139985282929</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0.00665817495652387</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>-0.002394210688817426</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>-0.04093712871211268</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>-0.0318620221990337</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>0.2076813235129483</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>0.2013858357184395</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>0.1932597662311594</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>0.1446719473921602</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>-0.002803713685289555</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>0.1541645847455442</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>0.04094329995539177</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>0.06069695612964611</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.138828402702272</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.02368181615127902</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.00211017440843641</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.007552945430953245</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>-0.002899019173317308</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.002895210326201101</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1.906383891769283e-11</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1.489053133537491e-10</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>-0.0001074738018242117</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>-1.205251220264326</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>-0.009209855488292496</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>-0.3832348513798011</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0.06984299877061122</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>-0.01256293094118213</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0.007938924468274124</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>-0.008293455278021436</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0.2047027475138697</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>0.2258712225773657</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>0.2245530239219594</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>0.1672249785490406</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>-0.02037186230044567</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>0.1734779448849674</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>0.005001859988906268</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>0.01954008486433653</v>
       </c>
     </row>
   </sheetData>
@@ -1001,4 +1166,1428 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:Y1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <cols>
+    <col customWidth="1" max="1025" min="1" style="3" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="12.8" r="1" s="3">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>m0</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>m1</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>m4</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>m5</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>m6</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>m7</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>b0</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>b1</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>b3</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>b4</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>b5</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>b6</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>b7</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>w0</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>w1</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>w2</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>w3</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>w4</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>w5</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>w6</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>w7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:Y15"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K2" activeCellId="0" pane="topLeft" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <cols>
+    <col customWidth="1" max="1025" min="1" style="3" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="12.8" r="1" s="3">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>m0</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>m1</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>m4</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>m5</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>m6</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>m7</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>b0</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>b1</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>b3</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>b4</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>b5</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>b6</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>b7</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>w0</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>w1</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>w2</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>w3</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>w4</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>w5</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>w6</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>w7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>SNE</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.1365796825417144</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.002216147574899179</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.0001571081234681272</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.0006223061673251691</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5.016956732221472e-05</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.0002070734884176489</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>-1.212572110247775e-09</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>-8.384574341712387e-10</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.0003007498013556107</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>-0.1107768565389296</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0.0008776326303478116</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>-0.03034584438311547</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0.001180566301894219</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0.001196233101307122</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0.001750068167384502</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0.001543948786416403</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0.5919332697401547</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0.008050913322968934</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0.0007966004985989171</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0.004903962132844019</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>0.3921716076272256</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>0.002160094560687294</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>-1.073399045456651e-05</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>-5.713892024917514e-06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.140390802789484</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.003301686603421307</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.0002480525417674323</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.0009357037951675747</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>-0.0004825428076010712</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.0004057437854160523</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1.669580024808732e-10</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1.699041320721213e-10</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>-5.350486214309017e-05</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>-0.1668236787220054</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>-0.001417060603973989</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>-0.04963762027727043</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0.008389363929595191</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>-0.00152330597909392</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>-0.001455672401689893</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0.001770431029081104</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>1.137462851636135</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0.02357114397100765</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>0.002491005582330114</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>0.01624218186127702</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>-0.1861628357190317</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>0.006395562941332923</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>5.285051982544759e-08</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>3.687642942126135e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>RIDE</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.138058774745679</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.002236427120183643</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.0001516328183570822</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.0005318391824838172</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>-0.0002792598280523559</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.0002263791170622916</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>-1.247785080755039e-09</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>-6.784216718761849e-10</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>-1.024057670902861e-05</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>-0.1125574213158327</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>-0.001240203772218537</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>-0.02783304235846106</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0.004190813667525487</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>-0.00120550048682852</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>-0.004000942645409489</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>-0.00624770682789231</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1.09321731953475</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>0.01400961560426633</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0.001188507625188342</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>0.008112684397376165</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>-0.1198645365802747</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>0.003338389618487537</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>-1.634858646817933e-06</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>-3.453411471495647e-07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>FUV</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.1339329788895788</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.00204546003815904</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.0001400641191862473</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.0004940213023491799</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.0003338168727394537</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.0001956874586839811</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>6.517667980300445e-09</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>2.755400861872415e-09</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.0002635937347331295</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>-0.1032038728865534</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>-0.0004015089297842753</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>-0.02423859184948885</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>-0.005478908273386606</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>-7.624335085964149e-05</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0.006692330220695156</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>0.002479197308736005</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0.9202840371170461</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0.00942445546988136</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0.0007226563714846885</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0.004728718291694773</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>0.0629427015028059</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>0.001894083386032896</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>2.123017876318995e-06</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>1.224843177832577e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>FCEL</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.1388322785493898</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.001207248165282745</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>8.452156315099475e-05</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.0002826090666700295</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>-0.0001434427553182709</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.0001171634215140675</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>6.862591276097072e-11</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1.147042855419848e-11</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1.571140499557461e-05</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>-0.06111211688192297</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>-0.0002498232601020551</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>-0.01439744604388904</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.003465253133698189</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>-0.0001380411328568036</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.001467484937465771</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>0.0008690481970982136</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1.068975458460943</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>0.007904132835825906</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>0.0007279231062828069</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>0.005012299812382395</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>-0.08459481436091178</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>0.001974772009455681</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>3.022912175851156e-08</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>1.979068996718308e-07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>CBAT</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.1373898935269345</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.001000505150975067</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>7.083356666853193e-05</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.0002187206642030935</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>7.308223406688899e-05</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>9.885917414383504e-05</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1.832454305661435e-10</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1.513989915917859e-10</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>-9.317499031815299e-05</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>-0.04965203276413535</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>-0.0001719820301421706</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>-0.01120360223681758</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>-0.002294425496864808</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>-0.0002419721460811934</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>-0.0003882421322900391</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>-0.0001701073950547276</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>0.9115968398569188</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>0.005545060216527983</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>0.000490912219442732</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>0.003500044752658145</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>0.07750122271313249</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>0.00136523209104068</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>4.488520922262697e-07</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>2.392981870175791e-07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>BLNK</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.1396342843251271</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.004639776084325538</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.0003258124075229741</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.001166057581280599</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.001061666730149971</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.0005050567141821847</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1.361917264801037e-09</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1.222425414346388e-09</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>9.23309107013092e-05</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>-0.2310246233996237</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0.005013629626670239</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>-0.05122257272395421</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>-0.01363268924532307</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0.006038206553258089</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0.004045045748874083</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0.002725961832294195</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0.818418639811601</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>0.02266311261136788</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>0.002238022847463316</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>0.0137190155983109</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>0.1373739425332199</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>0.00558695396037438</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>1.780917098829098e-07</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>1.345459526431084e-07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.1386507903716349</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.03152219335915932</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.002500150192751971</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.008599544053265684</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>-0.003756259701969515</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.003810400885647823</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>3.752675972548288e-10</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>4.819069815380915e-10</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.0001366628207377142</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>-1.599042466700336</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0.01483166486904013</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>-0.4090898780750495</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.1010466566265678</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0.01312366030283914</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0.008189822173629784</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>0.01012660496456165</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>-2.843852370715392</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>-0.5278654752995863</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>-0.05150882219860459</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>-0.3710935068659833</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>4.94358372389054</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>-0.1492483940277798</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>-7.692584579724937e-06</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>-7.462198613545672e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.1383523795847323</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.06698570990662917</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.005338954389505024</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.01814090880617904</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.001320684761528799</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.008129214262400325</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>5.220612349965496e-08</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>8.206121174640703e-08</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.002716943231144022</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>-3.356220903856804</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0.003021727325451415</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>-0.9422960039886694</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>-0.02865703110885632</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0.008806618893731752</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>-0.02559068320726264</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0.02575127394472895</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>0.03510849234028039</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>0.01292777291283585</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>0.001162750983675746</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>0.007625953832607388</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>0.9401090440092906</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>0.00306006342908693</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>4.45429767334308e-06</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>1.468194549674892e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0.1388844859697914</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.003006998190787461</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.0002127092263237959</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.0007839183979900401</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.0001407127057428467</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.0003171818137868449</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>-1.749450642433621e-11</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>9.137919544518223e-11</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>2.90600455511205e-05</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>-0.1511972228940781</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0.002671338898856779</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>-0.03645114795390803</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0.001422776808864739</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>0.002646139524095204</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>0.005454280840753256</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>0.0005002561642402024</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>0.6643086251633646</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>0.01143058494887313</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>0.001082677065070497</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>0.007060551052817287</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>0.3131132674055392</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>0.003004354899560139</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>-1.841140080867862e-07</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1.235787831721628e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0.1389730057390325</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.003915434479170364</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.0002773664870893958</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.000955647698303477</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.00025943946452083</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.0004250741222480031</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>3.516213043349495e-12</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1.16054291738684e-10</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0.0001141373920557951</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>-0.1955330462150938</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0.001915457557693359</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>-0.04485522365651801</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>-0.003100424374661551</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>0.003285711662696016</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>0.002479273888241455</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>0.002980278628182409</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0.7157011279948337</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>0.01539719178663329</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>0.00134129310717358</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <v>0.00924629490110397</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>0.254642921893969</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>0.003574548976889779</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>9.620663646893958e-05</v>
+      </c>
+      <c r="Y12" s="3" t="n">
+        <v>4.147029277220611e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0.138667176977836</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.01364874020995221</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.00101651452774808</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.00349467093808608</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.0005654954565744543</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.001459616471118063</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>-1.13677188660795e-08</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>6.597513064809142e-09</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>-0.0005964812927204615</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>-0.6881282599651679</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>-0.00500475744653891</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>-0.1824719104951031</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>-0.0155906738979146</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>-0.0091037088891123</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>0.01578314848729194</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>0.01510439966701026</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>0.2768802808433715</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>0.02090641865060755</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>0.001786219784475488</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <v>0.0120998126495009</v>
+      </c>
+      <c r="V13" s="3" t="n">
+        <v>0.6832892806801339</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>0.005040329967236482</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>-2.988166290487612e-06</v>
+      </c>
+      <c r="Y13" s="3" t="n">
+        <v>6.455909646098714e-07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0.1378357862678281</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0.00262912743357105</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.0002128036083618136</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.0007550105453869518</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.000197797988452706</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0.0002873078345074202</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>9.764548786378967e-10</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>8.632708600256388e-10</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>7.164932462630507e-06</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>-0.1313568201263676</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0.0004122300947412933</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>-0.03733462936682114</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>-0.003391007995151703</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>0.0006010658622721541</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>0.001136266385262754</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>0.0007052452766741508</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>0.7535866348839824</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>0.01144062926888792</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>0.0009473196996567615</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <v>0.005646096015236413</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <v>0.2261926058943425</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>0.002178581659964665</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>3.699638940796182e-06</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>4.432938988450102e-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0.1347183583006321</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.04205611909740369</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.003274801981651106</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.01106273795466514</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.0016506194303711</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0.004380404036544334</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>8.275148316984776e-10</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>1.565966441311088e-07</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0.004912426201146909</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>-2.097658104190129</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>-0.02174703859039384</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>-0.5790608407109995</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>-0.05048331089569011</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>-0.01556327402714886</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>-0.0264748656494369</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>-0.021281798332641</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>0.1351679870191684</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>0.02999827042401006</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>0.002723150097429514</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <v>0.01622218585385264</v>
+      </c>
+      <c r="V15" s="3" t="n">
+        <v>0.8087608772149593</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>0.006333743460590091</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>0.0007845346194908972</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>9.251310499103086e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="daily" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="60min" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5min" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -464,11 +465,11 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1025" min="1" style="3" width="11.52"/>
   </cols>
@@ -600,557 +601,557 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="4">
+    <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.1353339795254263</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.02311614774525422</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.002416155435321068</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.008756418689102752</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>-0.002386713597914154</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.003248142567883146</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1.683741890070394e-11</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1.365890513733459e-10</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>7.987578806672784e-06</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>-1.178914113291122</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>-0.008682686874265128</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>-0.4459318965908032</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0.06639658324626443</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>-0.01219697570948368</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0.008753731320656585</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>-0.006256505902792851</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0.1817201811518735</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0.2311367116934373</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0.228938436374275</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0.1764903635473043</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>-0.01775379962266861</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>0.179125441950419</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>0.00402048532970439</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>0.01632217957565525</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>NIO</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>0.1409390629431482</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0.01106994787452712</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.0009638351215188474</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.004260056751199901</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0.0107196465601912</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.001714354981946688</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1.256438897757982e-10</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>9.324736549418949e-11</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.005121796925822195</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>-0.51151695790439</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>0.04543535145661821</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>-0.1429511322129842</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>-0.2105190978883724</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0.04759920921230281</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>0.1131717505081041</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>-0.006948132450303703</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0.1705487444437477</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0.1426130105838598</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>0.1121617489438894</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>0.09722115133313633</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>0.110456455058216</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>0.1051124257000614</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>0.1198055228101544</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>0.1420809411269349</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="4">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="B3" s="3" t="n">
+        <v>0.1385909283782561</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.01050664818474728</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.001176417984417368</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.004759879099648455</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.009496628304978187</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.001849711840304627</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1.127368128607484e-10</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>8.768050621303033e-11</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.006256578361578916</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>-0.483545571782841</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.04256289451534556</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>-0.1676105457660406</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>-0.2060824955672104</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>0.04853126607488272</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>0.1057432012904757</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>-0.00447976343857507</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0.1651425896038074</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0.1465595186880449</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>0.1272481894178498</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>0.1078130448519441</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>0.102646633060844</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>0.1093472911632663</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>0.107830896961512</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>0.1334118362527315</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>TSLA</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>0.1509377355213447</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0.04829205583879663</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.003967244396418783</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.01453355824323124</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0.02485114489758947</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.005434399282194052</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>7.352085461773991e-10</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>5.273594266517581e-10</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0.009517786550298521</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>-2.349112636860576</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0.1521597684603392</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>-0.5516617738005419</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>-0.2967455595863266</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>0.161472894255981</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>-0.2022485898745222</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>-0.4317383272461738</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>0.2355375191423913</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>0.1339113691802713</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>0.1126646699860898</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>0.08611165322652134</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>0.06256545940181563</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>0.08695590222156396</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>0.1431282108576752</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>0.1391252159836715</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="B4" s="3" t="n">
+        <v>0.1501123784387246</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.04612699993502843</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.004452833277145399</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.01655896306969518</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.02196792746131501</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.005992214192937989</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>7.583055445389367e-10</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>5.432902149686715e-10</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.01501284839232625</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>-2.230352892383939</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.1585061151949421</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>-0.6529687690722783</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>-0.2921015150100861</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0.1659283397268095</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>-0.2082966909096421</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>-0.443708215485173</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>0.225364770843834</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>0.1381882030621805</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0.1172233139627159</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>0.09296147935881117</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>0.05748897378551517</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>0.09152875398670732</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>0.1405952647913003</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>0.1366492402089356</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>PLUG</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>0.139737681297814</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0.08771038850914158</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0.006456843100750385</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.0218109082869842</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0.07006959456924344</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.009979574230356839</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1.441592935345299e-10</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>7.519938481449504e-11</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>-0.006868826760564582</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>-4.280086590864762</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0.02546828206027066</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>-1.007542051032072</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>-1.487825978478411</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0.03806583469283134</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>-0.02267335264380377</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>-0.05244860975406021</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>0.4165813462087934</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>0.1523224364820338</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>0.1305075871960828</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>0.08627099045866167</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>0.09721422086977258</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>0.1082798098612328</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>0.002353776623413573</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>0.006469832300009352</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="4">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="B5" s="3" t="n">
+        <v>0.137114581169123</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.08166580030685124</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.007217073132578467</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.0249984170025428</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.04954374236238585</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.0106921106147825</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1.586549400427411e-10</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>7.741208127169423e-11</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>-0.008958351860397921</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>-3.981024836687937</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0.02747215132586744</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>-1.150648239630023</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>-1.223808236677121</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0.04442122561322988</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>-0.02229436639244444</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>-0.05326259367670187</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0.4015410144813033</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0.1607060218261482</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0.1397617031435922</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0.09717623500396873</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>0.07650906078671398</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>0.1151797229826008</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>0.002569980053887135</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>0.006556261721785637</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>NKLA</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>0.1400185252141773</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0.02410674020589887</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0.001895446801812674</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0.004439470328535895</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0.01648532172998477</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0.003570646128387971</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>6.191425479028914e-09</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>2.674109862407788e-10</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>-0.003629460444900821</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>-1.34219716588954</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>-0.07312480113109572</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>-0.2118434947924622</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>-0.4047399872541825</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>-0.06314359019593282</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>0.05554449371410183</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>-0.0009912682447493603</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>0.2249774323845742</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>0.1642175746493672</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>0.1437189204751534</v>
-      </c>
-      <c r="U5" s="3" t="n">
-        <v>0.07490929489843506</v>
-      </c>
-      <c r="V5" s="3" t="n">
-        <v>0.128737288204179</v>
-      </c>
-      <c r="W5" s="3" t="n">
-        <v>0.1239254875859819</v>
-      </c>
-      <c r="X5" s="3" t="n">
-        <v>0.1225350439862598</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>0.01697895781604921</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="4">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="B6" s="3" t="n">
+        <v>0.1367167143397206</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.02314229710689453</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.002204323359715545</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.005159682028524805</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.01701290855751802</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.004072116730582306</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>5.884292817423834e-09</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>2.531021603109672e-10</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>-0.00394161897945279</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>-1.287373995580736</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>-0.06874997834314774</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>-0.250303064702823</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>-0.4513940847565958</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>-0.06085719663435713</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.05406108151807273</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>-0.001910059861398935</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0.2054564861933204</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>0.1667226846709638</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>0.1507470459073334</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>0.08168630253695956</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0.1345216979067013</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>0.1330197731249609</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>0.1127224085050003</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>0.01512360115476023</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>MSFT</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>0.1377744771738686</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0.01077240239978401</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0.0009791177603384398</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0.003490125726474338</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0.001241682024925196</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0.001353478261000405</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>5.019250107072721e-12</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>3.415416791997129e-11</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>0.001396272769249888</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>-0.5338320807505512</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>0.01644695307840659</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>-0.1493885131128801</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0.009715207703908966</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>0.01818046430218447</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>0.05790247896986352</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>0.06462436139213427</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>0.2405660260351586</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>0.1871916114080155</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>0.1910250343757978</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>0.1439554320597602</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>0.01689881577335669</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>0.1505446695753559</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>0.01928539008151347</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>0.0505330206910418</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="7" s="4">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>SNE</t>
-        </is>
-      </c>
       <c r="B7" s="3" t="n">
-        <v>0.1390518612329022</v>
+        <v>0.1345400174778676</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.0147110386237944</v>
+        <v>0.01036200100409962</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.00138782395704841</v>
+        <v>0.001119259071693009</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.004734652117552338</v>
+        <v>0.003971722791948849</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-0.0002874154348478644</v>
+        <v>0.0006543173600419557</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.001912574355548698</v>
+        <v>0.001466221734135586</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>2.350205226318901e-10</v>
+        <v>5.019653753372684e-12</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>1.075817603716296e-09</v>
+        <v>3.353349052686357e-11</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>6.863564669539238e-05</v>
+        <v>0.002384517343013836</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>-0.742963482844535</v>
+        <v>-0.5127426748859708</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>-0.003199212426994573</v>
+        <v>0.01702644247593209</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>-0.239139985282929</v>
+        <v>-0.1745143201006574</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.00665817495652387</v>
+        <v>0.02079050501177461</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>-0.002394210688817426</v>
+        <v>0.01951049090438907</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>-0.04093712871211268</v>
+        <v>0.05828798079919199</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>-0.0318620221990337</v>
+        <v>0.06447206528427187</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.2076813235129483</v>
+        <v>0.2208767591637097</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.2013858357184395</v>
+        <v>0.1953307709446786</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.1932597662311594</v>
+        <v>0.201067128291379</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.1446719473921602</v>
+        <v>0.1539560436556384</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>-0.002803713685289555</v>
+        <v>0.009620442903557196</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>0.1541645847455442</v>
+        <v>0.154354047161639</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>0.04094329995539177</v>
+        <v>0.01815311472078176</v>
       </c>
       <c r="Y7" s="3" t="n">
-        <v>0.06069695612964611</v>
+        <v>0.04664169315861624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>SNE</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.138828402702272</v>
+        <v>0.1362359037010507</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.02368181615127902</v>
+        <v>0.01429507612645025</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.00211017440843641</v>
+        <v>0.001575430175363643</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.007552945430953245</v>
+        <v>0.005439131765689395</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.002899019173317308</v>
+        <v>0.0004191584755106373</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.002895210326201101</v>
+        <v>0.002068530526622674</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>1.906383891769283e-11</v>
+        <v>2.348807752275892e-10</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>1.489053133537491e-10</v>
+        <v>1.078206231965275e-09</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>-0.0001074738018242117</v>
+        <v>0.0001337265080490603</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>-1.205251220264326</v>
+        <v>-0.7216613100202224</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>-0.009209855488292496</v>
+        <v>-0.001553549086587638</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-0.3832348513798011</v>
+        <v>-0.2746776158112832</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>0.06984299877061122</v>
+        <v>-0.006554733305411077</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>-0.01256293094118213</v>
+        <v>-0.0009471621737110984</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0.007938924468274124</v>
+        <v>-0.04028419930669253</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>-0.008293455278021436</v>
+        <v>-0.03136447011002497</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>0.2047027475138697</v>
+        <v>0.1883611222308824</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>0.2258712225773657</v>
+        <v>0.2058170513959711</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>0.2245530239219594</v>
+        <v>0.1986039076849226</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>0.1672249785490406</v>
+        <v>0.1534964713851671</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>-0.02037186230044567</v>
+        <v>0.004278437920373342</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>0.1734779448849674</v>
+        <v>0.155307547608612</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>0.005001859988906268</v>
+        <v>0.03783677720947085</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>0.01954008486433653</v>
+        <v>0.05629868456460045</v>
       </c>
     </row>
   </sheetData>
@@ -1180,12 +1181,12 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1025" min="1" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="12.8" r="1" s="3">
+    <row customHeight="1" ht="12.8" r="1" s="4">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Stock</t>
@@ -1335,16 +1336,16 @@
   </sheetPr>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K2" activeCellId="0" pane="topLeft" sqref="K2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1025" min="1" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="12.8" r="1" s="3">
+    <row customHeight="1" ht="12.8" r="1" s="4">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Stock</t>
@@ -1471,86 +1472,86 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="1" ht="12.8" r="2" s="4">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>SNE</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.1365796825417144</v>
+        <v>0.136579682541714</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.002216147574899179</v>
+        <v>0.00221614757489918</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0001571081234681272</v>
+        <v>0.000157108123468127</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0006223061673251691</v>
+        <v>0.000622306167325169</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>5.016956732221472e-05</v>
+        <v>5.01695673222147e-05</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.0002070734884176489</v>
+        <v>0.000207073488417649</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>-1.212572110247775e-09</v>
+        <v>-1.21257211024778e-09</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>-8.384574341712387e-10</v>
+        <v>-8.38457434171239e-10</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.0003007498013556107</v>
+        <v>0.000300749801355611</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>-0.1107768565389296</v>
+        <v>-0.11077685653893</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0.0008776326303478116</v>
+        <v>0.000877632630347812</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>-0.03034584438311547</v>
+        <v>-0.0303458443831155</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0.001180566301894219</v>
+        <v>0.00118056630189422</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.001196233101307122</v>
+        <v>0.00119623310130712</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>0.001750068167384502</v>
+        <v>0.0017500681673845</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.001543948786416403</v>
+        <v>0.0015439487864164</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0.5919332697401547</v>
+        <v>0.591933269740155</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>0.008050913322968934</v>
+        <v>0.00805091332296894</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>0.0007966004985989171</v>
+        <v>0.000796600498598917</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0.004903962132844019</v>
+        <v>0.00490396213284402</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.3921716076272256</v>
+        <v>0.392171607627226</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0.002160094560687294</v>
+        <v>0.00216009456068729</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>-1.073399045456651e-05</v>
+        <v>-1.07339904545665e-05</v>
       </c>
       <c r="Y2" s="3" t="n">
-        <v>-5.713892024917514e-06</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-5.71389202491751e-06</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="4">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>NIO</t>
@@ -1560,76 +1561,76 @@
         <v>0.140390802789484</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.003301686603421307</v>
+        <v>0.00330168660342131</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0002480525417674323</v>
+        <v>0.000248052541767432</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0009357037951675747</v>
+        <v>0.000935703795167575</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-0.0004825428076010712</v>
+        <v>-0.000482542807601071</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.0004057437854160523</v>
+        <v>0.000405743785416052</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>1.669580024808732e-10</v>
+        <v>1.66958002480873e-10</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>1.699041320721213e-10</v>
+        <v>1.69904132072121e-10</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>-5.350486214309017e-05</v>
+        <v>-5.35048621430902e-05</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>-0.1668236787220054</v>
+        <v>-0.166823678722005</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>-0.001417060603973989</v>
+        <v>-0.00141706060397399</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>-0.04963762027727043</v>
+        <v>-0.0496376202772704</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>0.008389363929595191</v>
+        <v>0.008389363929595189</v>
       </c>
       <c r="O3" s="3" t="n">
         <v>-0.00152330597909392</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>-0.001455672401689893</v>
+        <v>-0.00145567240168989</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.001770431029081104</v>
+        <v>0.0017704310290811</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>1.137462851636135</v>
+        <v>1.13746285163614</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>0.02357114397100765</v>
+        <v>0.0235711439710077</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0.002491005582330114</v>
+        <v>0.00249100558233011</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0.01624218186127702</v>
+        <v>0.016242181861277</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>-0.1861628357190317</v>
+        <v>-0.186162835719032</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.006395562941332923</v>
+        <v>0.00639556294133292</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>5.285051982544759e-08</v>
+        <v>5.28505198254476e-08</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>3.687642942126135e-08</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3.68764294212614e-08</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>RIDE</t>
@@ -1639,46 +1640,46 @@
         <v>0.138058774745679</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.002236427120183643</v>
+        <v>0.00223642712018364</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0001516328183570822</v>
+        <v>0.000151632818357082</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0005318391824838172</v>
+        <v>0.000531839182483817</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-0.0002792598280523559</v>
+        <v>-0.000279259828052356</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.0002263791170622916</v>
+        <v>0.000226379117062292</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-1.247785080755039e-09</v>
+        <v>-1.24778508075504e-09</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>-6.784216718761849e-10</v>
+        <v>-6.78421671876185e-10</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>-1.024057670902861e-05</v>
+        <v>-1.02405767090286e-05</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>-0.1125574213158327</v>
+        <v>-0.112557421315833</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>-0.001240203772218537</v>
+        <v>-0.00124020377221854</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>-0.02783304235846106</v>
+        <v>-0.0278330423584611</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.004190813667525487</v>
+        <v>0.00419081366752549</v>
       </c>
       <c r="O4" s="3" t="n">
         <v>-0.00120550048682852</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>-0.004000942645409489</v>
+        <v>-0.00400094264540949</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>-0.00624770682789231</v>
@@ -1687,490 +1688,490 @@
         <v>1.09321731953475</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.01400961560426633</v>
+        <v>0.0140096156042663</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.001188507625188342</v>
+        <v>0.00118850762518834</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.008112684397376165</v>
+        <v>0.00811268439737617</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>-0.1198645365802747</v>
+        <v>-0.119864536580275</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.003338389618487537</v>
+        <v>0.00333838961848754</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>-1.634858646817933e-06</v>
+        <v>-1.63485864681793e-06</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>-3.453411471495647e-07</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-3.45341147149565e-07</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="4">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>FUV</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.1339329788895788</v>
+        <v>0.133932978889579</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0.00204546003815904</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.0001400641191862473</v>
+        <v>0.000140064119186247</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0004940213023491799</v>
+        <v>0.00049402130234918</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.0003338168727394537</v>
+        <v>0.000333816872739454</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>0.0001956874586839811</v>
+        <v>0.000195687458683981</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>6.517667980300445e-09</v>
+        <v>6.51766798030045e-09</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>2.755400861872415e-09</v>
+        <v>2.75540086187241e-09</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.0002635937347331295</v>
+        <v>0.000263593734733129</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>-0.1032038728865534</v>
+        <v>-0.103203872886553</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>-0.0004015089297842753</v>
+        <v>-0.000401508929784275</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-0.02423859184948885</v>
+        <v>-0.0242385918494888</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>-0.005478908273386606</v>
+        <v>-0.00547890827338661</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>-7.624335085964149e-05</v>
+        <v>-7.624335085964151e-05</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0.006692330220695156</v>
+        <v>0.00669233022069516</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0.002479197308736005</v>
+        <v>0.00247919730873601</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>0.9202840371170461</v>
+        <v>0.920284037117046</v>
       </c>
       <c r="S5" s="3" t="n">
         <v>0.00942445546988136</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>0.0007226563714846885</v>
+        <v>0.000722656371484688</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>0.004728718291694773</v>
+        <v>0.00472871829169477</v>
       </c>
       <c r="V5" s="3" t="n">
         <v>0.0629427015028059</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>0.001894083386032896</v>
+        <v>0.0018940833860329</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>2.123017876318995e-06</v>
+        <v>2.12301787631899e-06</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>1.224843177832577e-06</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1.22484317783258e-06</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="4">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>FCEL</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.1388322785493898</v>
+        <v>0.13883227854939</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.001207248165282745</v>
+        <v>0.00120724816528275</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>8.452156315099475e-05</v>
+        <v>8.45215631509948e-05</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0002826090666700295</v>
+        <v>0.000282609066670029</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.0001434427553182709</v>
+        <v>-0.000143442755318271</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0.0001171634215140675</v>
+        <v>0.000117163421514068</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>6.862591276097072e-11</v>
+        <v>6.86259127609707e-11</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>1.147042855419848e-11</v>
+        <v>1.14704285541985e-11</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>1.571140499557461e-05</v>
+        <v>1.57114049955746e-05</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>-0.06111211688192297</v>
+        <v>-0.061112116881923</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>-0.0002498232601020551</v>
+        <v>-0.000249823260102055</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>-0.01439744604388904</v>
+        <v>-0.014397446043889</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>0.003465253133698189</v>
+        <v>0.00346525313369819</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>-0.0001380411328568036</v>
+        <v>-0.000138041132856804</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0.001467484937465771</v>
+        <v>0.00146748493746577</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0.0008690481970982136</v>
+        <v>0.000869048197098214</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>1.068975458460943</v>
+        <v>1.06897545846094</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>0.007904132835825906</v>
+        <v>0.00790413283582591</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0.0007279231062828069</v>
+        <v>0.000727923106282807</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>0.005012299812382395</v>
+        <v>0.0050122998123824</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>-0.08459481436091178</v>
+        <v>-0.0845948143609118</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>0.001974772009455681</v>
+        <v>0.00197477200945568</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>3.022912175851156e-08</v>
+        <v>3.02291217585116e-08</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>1.979068996718308e-07</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1.97906899671831e-07</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="4">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>CBAT</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.1373898935269345</v>
+        <v>0.137389893526935</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.001000505150975067</v>
+        <v>0.00100050515097507</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>7.083356666853193e-05</v>
+        <v>7.08335666685319e-05</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0002187206642030935</v>
+        <v>0.000218720664203093</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>7.308223406688899e-05</v>
+        <v>7.3082234066889e-05</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>9.885917414383504e-05</v>
+        <v>9.8859174143835e-05</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>1.832454305661435e-10</v>
+        <v>1.83245430566143e-10</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>1.513989915917859e-10</v>
+        <v>1.51398991591786e-10</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>-9.317499031815299e-05</v>
+        <v>-9.3174990318153e-05</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>-0.04965203276413535</v>
+        <v>-0.0496520327641354</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>-0.0001719820301421706</v>
+        <v>-0.000171982030142171</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>-0.01120360223681758</v>
+        <v>-0.0112036022368176</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>-0.002294425496864808</v>
+        <v>-0.00229442549686481</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>-0.0002419721460811934</v>
+        <v>-0.000241972146081193</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>-0.0003882421322900391</v>
+        <v>-0.000388242132290039</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>-0.0001701073950547276</v>
+        <v>-0.000170107395054728</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.9115968398569188</v>
+        <v>0.911596839856919</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.005545060216527983</v>
+        <v>0.00554506021652798</v>
       </c>
       <c r="T7" s="3" t="n">
         <v>0.000490912219442732</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.003500044752658145</v>
+        <v>0.00350004475265814</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.07750122271313249</v>
+        <v>0.07750122271313251</v>
       </c>
       <c r="W7" s="3" t="n">
         <v>0.00136523209104068</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>4.488520922262697e-07</v>
+        <v>4.4885209222627e-07</v>
       </c>
       <c r="Y7" s="3" t="n">
-        <v>2.392981870175791e-07</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2.39298187017579e-07</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="4">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>BLNK</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.1396342843251271</v>
+        <v>0.139634284325127</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.004639776084325538</v>
+        <v>0.00463977608432554</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.0003258124075229741</v>
+        <v>0.000325812407522974</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.001166057581280599</v>
+        <v>0.0011660575812806</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.001061666730149971</v>
+        <v>0.00106166673014997</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.0005050567141821847</v>
+        <v>0.000505056714182185</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>1.361917264801037e-09</v>
+        <v>1.36191726480104e-09</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>1.222425414346388e-09</v>
+        <v>1.22242541434639e-09</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>9.23309107013092e-05</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>-0.2310246233996237</v>
+        <v>-0.231024623399624</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0.005013629626670239</v>
+        <v>0.00501362962667024</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-0.05122257272395421</v>
+        <v>-0.0512225727239542</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>-0.01363268924532307</v>
+        <v>-0.0136326892453231</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>0.006038206553258089</v>
+        <v>0.00603820655325809</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0.004045045748874083</v>
+        <v>0.00404504574887408</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>0.002725961832294195</v>
+        <v>0.0027259618322942</v>
       </c>
       <c r="R8" s="3" t="n">
         <v>0.818418639811601</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>0.02266311261136788</v>
+        <v>0.0226631126113679</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>0.002238022847463316</v>
+        <v>0.00223802284746332</v>
       </c>
       <c r="U8" s="3" t="n">
         <v>0.0137190155983109</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>0.1373739425332199</v>
+        <v>0.13737394253322</v>
       </c>
       <c r="W8" s="3" t="n">
         <v>0.00558695396037438</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>1.780917098829098e-07</v>
+        <v>1.7809170988291e-07</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>1.345459526431084e-07</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1.34545952643108e-07</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="4">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>TSLA</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.1386507903716349</v>
+        <v>0.138650790371635</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.03152219335915932</v>
+        <v>0.0315221933591593</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.002500150192751971</v>
+        <v>0.00250015019275197</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.008599544053265684</v>
+        <v>0.008599544053265681</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>-0.003756259701969515</v>
+        <v>-0.00375625970196951</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>0.003810400885647823</v>
+        <v>0.00381040088564782</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>3.752675972548288e-10</v>
+        <v>3.75267597254829e-10</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>4.819069815380915e-10</v>
+        <v>4.81906981538092e-10</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0.0001366628207377142</v>
+        <v>0.000136662820737714</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>-1.599042466700336</v>
+        <v>-1.59904246670034</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0.01483166486904013</v>
+        <v>0.0148316648690401</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>-0.4090898780750495</v>
+        <v>-0.409089878075049</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0.1010466566265678</v>
+        <v>0.101046656626568</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0.01312366030283914</v>
+        <v>0.0131236603028391</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0.008189822173629784</v>
+        <v>0.00818982217362979</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.01012660496456165</v>
+        <v>0.0101266049645617</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>-2.843852370715392</v>
+        <v>-2.84385237071539</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>-0.5278654752995863</v>
+        <v>-0.5278654752995861</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>-0.05150882219860459</v>
+        <v>-0.0515088221986046</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>-0.3710935068659833</v>
+        <v>-0.371093506865983</v>
       </c>
       <c r="V9" s="3" t="n">
         <v>4.94358372389054</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>-0.1492483940277798</v>
+        <v>-0.14924839402778</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>-7.692584579724937e-06</v>
+        <v>-7.692584579724941e-06</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>-7.462198613545672e-06</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-7.46219861354567e-06</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="4">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t>AMZN</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.1383523795847323</v>
+        <v>0.138352379584732</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.06698570990662917</v>
+        <v>0.06698570990662921</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.005338954389505024</v>
+        <v>0.00533895438950502</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.01814090880617904</v>
+        <v>0.018140908806179</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.001320684761528799</v>
+        <v>0.0013206847615288</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.008129214262400325</v>
+        <v>0.00812921426240033</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>5.220612349965496e-08</v>
+        <v>5.2206123499655e-08</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>8.206121174640703e-08</v>
+        <v>8.2061211746407e-08</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.002716943231144022</v>
+        <v>0.00271694323114402</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>-3.356220903856804</v>
+        <v>-3.3562209038568</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.003021727325451415</v>
+        <v>0.00302172732545141</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>-0.9422960039886694</v>
+        <v>-0.942296003988669</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>-0.02865703110885632</v>
+        <v>-0.0286570311088563</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.008806618893731752</v>
+        <v>0.00880661889373175</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>-0.02559068320726264</v>
+        <v>-0.0255906832072626</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.02575127394472895</v>
+        <v>0.025751273944729</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.03510849234028039</v>
+        <v>0.0351084923402804</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.01292777291283585</v>
+        <v>0.0129277729128359</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.001162750983675746</v>
+        <v>0.00116275098367575</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.007625953832607388</v>
+        <v>0.00762595383260739</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.9401090440092906</v>
+        <v>0.940109044009291</v>
       </c>
       <c r="W10" s="3" t="n">
         <v>0.00306006342908693</v>
@@ -2179,102 +2180,102 @@
         <v>4.45429767334308e-06</v>
       </c>
       <c r="Y10" s="3" t="n">
-        <v>1.468194549674892e-06</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1.46819454967489e-06</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="4">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>AAPL</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1388844859697914</v>
+        <v>0.138884485969791</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.003006998190787461</v>
+        <v>0.00300699819078746</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.0002127092263237959</v>
+        <v>0.000212709226323796</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.0007839183979900401</v>
+        <v>0.00078391839799004</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.0001407127057428467</v>
+        <v>0.000140712705742847</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.0003171818137868449</v>
+        <v>0.000317181813786845</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>-1.749450642433621e-11</v>
+        <v>-1.74945064243362e-11</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>9.137919544518223e-11</v>
+        <v>9.13791954451822e-11</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>2.90600455511205e-05</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>-0.1511972228940781</v>
+        <v>-0.151197222894078</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0.002671338898856779</v>
+        <v>0.00267133889885678</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>-0.03645114795390803</v>
+        <v>-0.036451147953908</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>0.001422776808864739</v>
+        <v>0.00142277680886474</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0.002646139524095204</v>
+        <v>0.0026461395240952</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0.005454280840753256</v>
+        <v>0.00545428084075326</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>0.0005002561642402024</v>
+        <v>0.000500256164240202</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>0.6643086251633646</v>
+        <v>0.664308625163365</v>
       </c>
       <c r="S11" s="3" t="n">
-        <v>0.01143058494887313</v>
+        <v>0.0114305849488731</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>0.001082677065070497</v>
+        <v>0.0010826770650705</v>
       </c>
       <c r="U11" s="3" t="n">
-        <v>0.007060551052817287</v>
+        <v>0.00706055105281729</v>
       </c>
       <c r="V11" s="3" t="n">
-        <v>0.3131132674055392</v>
+        <v>0.313113267405539</v>
       </c>
       <c r="W11" s="3" t="n">
-        <v>0.003004354899560139</v>
+        <v>0.00300435489956014</v>
       </c>
       <c r="X11" s="3" t="n">
-        <v>-1.841140080867862e-07</v>
+        <v>-1.84114008086786e-07</v>
       </c>
       <c r="Y11" s="3" t="n">
-        <v>1.235787831721628e-07</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1.23578783172163e-07</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="4">
       <c r="A12" s="3" t="inlineStr">
         <is>
           <t>MSFT</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1389730057390325</v>
+        <v>0.138973005739032</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.003915434479170364</v>
+        <v>0.00391543447917036</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.0002773664870893958</v>
+        <v>0.000277366487089396</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0.000955647698303477</v>
@@ -2283,43 +2284,43 @@
         <v>0.00025943946452083</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>0.0004250741222480031</v>
+        <v>0.000425074122248003</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>3.516213043349495e-12</v>
+        <v>3.5162130433495e-12</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>1.16054291738684e-10</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.0001141373920557951</v>
+        <v>0.000114137392055795</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>-0.1955330462150938</v>
+        <v>-0.195533046215094</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0.001915457557693359</v>
+        <v>0.00191545755769336</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>-0.04485522365651801</v>
+        <v>-0.044855223656518</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>-0.003100424374661551</v>
+        <v>-0.00310042437466155</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>0.003285711662696016</v>
+        <v>0.00328571166269602</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0.002479273888241455</v>
+        <v>0.00247927388824145</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>0.002980278628182409</v>
+        <v>0.00298027862818241</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>0.7157011279948337</v>
+        <v>0.715701127994834</v>
       </c>
       <c r="S12" s="3" t="n">
-        <v>0.01539719178663329</v>
+        <v>0.0153971917866333</v>
       </c>
       <c r="T12" s="3" t="n">
         <v>0.00134129310717358</v>
@@ -2331,16 +2332,16 @@
         <v>0.254642921893969</v>
       </c>
       <c r="W12" s="3" t="n">
-        <v>0.003574548976889779</v>
+        <v>0.00357454897688978</v>
       </c>
       <c r="X12" s="3" t="n">
-        <v>9.620663646893958e-05</v>
+        <v>9.62066364689396e-05</v>
       </c>
       <c r="Y12" s="3" t="n">
-        <v>4.147029277220611e-07</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>4.14702927722061e-07</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="4">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t>NVDA</t>
@@ -2350,7 +2351,7 @@
         <v>0.138667176977836</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.01364874020995221</v>
+        <v>0.0136487402099522</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>0.00101651452774808</v>
@@ -2359,28 +2360,28 @@
         <v>0.00349467093808608</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.0005654954565744543</v>
+        <v>0.000565495456574454</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>0.001459616471118063</v>
+        <v>0.00145961647111806</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>-1.13677188660795e-08</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>6.597513064809142e-09</v>
+        <v>6.59751306480914e-09</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>-0.0005964812927204615</v>
+        <v>-0.000596481292720461</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>-0.6881282599651679</v>
+        <v>-0.688128259965168</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>-0.00500475744653891</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>-0.1824719104951031</v>
+        <v>-0.182471910495103</v>
       </c>
       <c r="N13" s="3" t="n">
         <v>-0.0155906738979146</v>
@@ -2389,19 +2390,19 @@
         <v>-0.0091037088891123</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0.01578314848729194</v>
+        <v>0.0157831484872919</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0.01510439966701026</v>
+        <v>0.0151043996670103</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>0.2768802808433715</v>
+        <v>0.276880280843371</v>
       </c>
       <c r="S13" s="3" t="n">
-        <v>0.02090641865060755</v>
+        <v>0.0209064186506075</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>0.001786219784475488</v>
+        <v>0.00178621978447549</v>
       </c>
       <c r="U13" s="3" t="n">
         <v>0.0120998126495009</v>
@@ -2410,141 +2411,141 @@
         <v>0.6832892806801339</v>
       </c>
       <c r="W13" s="3" t="n">
-        <v>0.005040329967236482</v>
+        <v>0.00504032996723648</v>
       </c>
       <c r="X13" s="3" t="n">
-        <v>-2.988166290487612e-06</v>
+        <v>-2.98816629048761e-06</v>
       </c>
       <c r="Y13" s="3" t="n">
-        <v>6.455909646098714e-07</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>6.45590964609871e-07</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="4">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t>IBM</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.1378357862678281</v>
+        <v>0.137835786267828</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0.00262912743357105</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.0002128036083618136</v>
+        <v>0.000212803608361814</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.0007550105453869518</v>
+        <v>0.000755010545386952</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0.000197797988452706</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>0.0002873078345074202</v>
+        <v>0.00028730783450742</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>9.764548786378967e-10</v>
+        <v>9.764548786378971e-10</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>8.632708600256388e-10</v>
+        <v>8.63270860025639e-10</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>7.164932462630507e-06</v>
+        <v>7.16493246263051e-06</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>-0.1313568201263676</v>
+        <v>-0.131356820126368</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0.0004122300947412933</v>
+        <v>0.000412230094741293</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>-0.03733462936682114</v>
+        <v>-0.0373346293668211</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>-0.003391007995151703</v>
+        <v>-0.0033910079951517</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0.0006010658622721541</v>
+        <v>0.000601065862272154</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0.001136266385262754</v>
+        <v>0.00113626638526275</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>0.0007052452766741508</v>
+        <v>0.000705245276674151</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>0.7535866348839824</v>
+        <v>0.753586634883982</v>
       </c>
       <c r="S14" s="3" t="n">
-        <v>0.01144062926888792</v>
+        <v>0.0114406292688879</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>0.0009473196996567615</v>
+        <v>0.000947319699656761</v>
       </c>
       <c r="U14" s="3" t="n">
-        <v>0.005646096015236413</v>
+        <v>0.00564609601523641</v>
       </c>
       <c r="V14" s="3" t="n">
-        <v>0.2261926058943425</v>
+        <v>0.226192605894343</v>
       </c>
       <c r="W14" s="3" t="n">
-        <v>0.002178581659964665</v>
+        <v>0.00217858165996466</v>
       </c>
       <c r="X14" s="3" t="n">
-        <v>3.699638940796182e-06</v>
+        <v>3.69963894079618e-06</v>
       </c>
       <c r="Y14" s="3" t="n">
-        <v>4.432938988450102e-06</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4.4329389884501e-06</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="4">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>GOOG</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.1347183583006321</v>
+        <v>0.134718358300632</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.04205611909740369</v>
+        <v>0.0420561190974037</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.003274801981651106</v>
+        <v>0.00327480198165111</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.01106273795466514</v>
+        <v>0.0110627379546651</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>0.0016506194303711</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>0.004380404036544334</v>
+        <v>0.00438040403654433</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>8.275148316984776e-10</v>
+        <v>8.27514831698478e-10</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>1.565966441311088e-07</v>
+        <v>1.56596644131109e-07</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.004912426201146909</v>
+        <v>0.00491242620114691</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>-2.097658104190129</v>
+        <v>-2.09765810419013</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>-0.02174703859039384</v>
+        <v>-0.0217470385903938</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>-0.5790608407109995</v>
+        <v>-0.5790608407109989</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>-0.05048331089569011</v>
+        <v>-0.0504833108956901</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>-0.01556327402714886</v>
+        <v>-0.0155632740271489</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>-0.0264748656494369</v>
@@ -2553,28 +2554,365 @@
         <v>-0.021281798332641</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>0.1351679870191684</v>
+        <v>0.135167987019168</v>
       </c>
       <c r="S15" s="3" t="n">
-        <v>0.02999827042401006</v>
+        <v>0.0299982704240101</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>0.002723150097429514</v>
+        <v>0.00272315009742951</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>0.01622218585385264</v>
+        <v>0.0162221858538526</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>0.8087608772149593</v>
+        <v>0.808760877214959</v>
       </c>
       <c r="W15" s="3" t="n">
-        <v>0.006333743460590091</v>
+        <v>0.00633374346059009</v>
       </c>
       <c r="X15" s="3" t="n">
-        <v>0.0007845346194908972</v>
+        <v>0.000784534619490897</v>
       </c>
       <c r="Y15" s="3" t="n">
-        <v>9.251310499103086e-06</v>
+        <v>9.25131049910309e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <cols>
+    <col customWidth="1" max="1025" min="1" style="3" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="12.8" r="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>a4</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>a5</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>a6</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>a7</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>a8</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="n"/>
+      <c r="L1" s="5" t="n"/>
+      <c r="M1" s="5" t="n"/>
+      <c r="N1" s="5" t="n"/>
+      <c r="O1" s="5" t="n"/>
+      <c r="P1" s="5" t="n"/>
+      <c r="Q1" s="5" t="n"/>
+      <c r="R1" s="5" t="n"/>
+      <c r="S1" s="5" t="n"/>
+      <c r="T1" s="5" t="n"/>
+      <c r="U1" s="5" t="n"/>
+      <c r="V1" s="5" t="n"/>
+      <c r="W1" s="5" t="n"/>
+      <c r="X1" s="5" t="n"/>
+      <c r="Y1" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="4">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>NKLA</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.01653374795259507</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>-0.01349018989072275</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.0009910385456232483</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.002211684408468581</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.02739243731267229</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.001363141302623336</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>-1.776200242619236e-08</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>-4.938997475683575e-09</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.1395138973315981</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>-0.06427723582525341</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>-0.0007559920135603266</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>-0.0005380007220262511</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.0001724943831567084</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.000300614345162068</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.001241520741423059</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>-1.171055494100244e-11</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>2.835877891997141e-13</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.3100216411810126</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>SNE</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.01481586907528008</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.002144204037796057</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.0008992895166178896</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>-0.001594513840965123</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>-0.005059605400875675</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>-0.0004837206746742919</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>3.326766940264444e-10</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.507407204559867e-10</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.1143373646795085</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="4">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>-0.09077986932814923</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.004314249365721232</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>9.14569398570725e-05</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>-0.002763584435228912</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>-0.001624397435542726</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.00180138615355606</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>2.353703671691291e-10</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>-6.818434920493999e-10</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.3747829709688214</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="4">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>-0.0798736893367518</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.002085175407423459</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.0008591001259896575</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>-0.003265011017815574</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.0009594642852026158</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>-4.846269218695619e-05</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>-3.715059552580937e-11</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1.195078997564915e-10</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.2470382837785018</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="4">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>-0.8348128495112077</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.02814438052328861</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.01461190710333258</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>-0.05727267042543521</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.01042671051894129</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.002852393602227778</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>3.174484447524017e-09</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>5.102297081125259e-10</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>-0.7437235821239465</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="4">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.001896228157687162</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>-0.0002277820174557703</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.0001390295009680415</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>-0.001065031614760299</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.002245457551767789</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>8.612943544500823e-05</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1.705152273085189e-10</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>4.198998205197195e-11</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.03082075067600522</v>
       </c>
     </row>
   </sheetData>

--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="daily" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="60min" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5min" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dailySurface" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -463,10 +463,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="N1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Z14" activeCellId="0" pane="topLeft" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -600,558 +600,2105 @@
           <t>w7</t>
         </is>
       </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="AA1" s="5" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="AB1" s="5" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="AC1" s="5" t="inlineStr">
+        <is>
+          <t>a4</t>
+        </is>
+      </c>
+      <c r="AD1" s="5" t="inlineStr">
+        <is>
+          <t>a5</t>
+        </is>
+      </c>
+      <c r="AE1" s="5" t="inlineStr">
+        <is>
+          <t>a6</t>
+        </is>
+      </c>
+      <c r="AF1" s="5" t="inlineStr">
+        <is>
+          <t>a7</t>
+        </is>
+      </c>
+      <c r="AG1" s="5" t="inlineStr">
+        <is>
+          <t>a8</t>
+        </is>
+      </c>
     </row>
-    <row r="2">
+    <row customHeight="1" ht="12.8" r="2" s="4">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>IBM</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.1353339795254263</v>
+        <v>-0.03685771773773124</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.02311614774525422</v>
+        <v>-0.002817595643678447</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.002416155435321068</v>
+        <v>0.0001320589383486861</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.008756418689102752</v>
+        <v>-0.001575868091256668</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-0.002386713597914154</v>
+        <v>-0.0001707820041139671</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.003248142567883146</v>
+        <v>0.0004837155014728715</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>1.683741890070394e-11</v>
+        <v>-6.802844204066801e-11</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>1.365890513733459e-10</v>
+        <v>-3.52911223044529e-10</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>7.987578806672784e-06</v>
+        <v>0.005438959620459324</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>-1.178914113291122</v>
+        <v>0.1481349012931485</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>-0.008682686874265128</v>
+        <v>0.002610360577524171</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>-0.4459318965908032</v>
+        <v>0.08784403859745028</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0.06639658324626443</v>
+        <v>0.006668455242969584</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>-0.01219697570948368</v>
+        <v>-0.0005728613402185889</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>0.008753731320656585</v>
+        <v>0.01810828045586003</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>-0.006256505902792851</v>
+        <v>0.05206851183050814</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0.1817201811518735</v>
+        <v>0.3810049995268447</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>0.2311367116934373</v>
+        <v>0.2169909429382607</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>0.228938436374275</v>
+        <v>-0.09640581853431093</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0.1764903635473043</v>
+        <v>0.244430114838874</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>-0.01775379962266861</v>
+        <v>0.009777734361062907</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0.179125441950419</v>
+        <v>-0.2054573433408424</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>0.00402048532970439</v>
+        <v>0.1249434466868105</v>
       </c>
       <c r="Y2" s="3" t="n">
-        <v>0.01632217957565525</v>
+        <v>0.3247159235233005</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.09077986932814923</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.004314249365721232</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9.14569398570725e-05</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.002763584435228912</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.001624397435542726</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.00180138615355606</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.353703671691291e-10</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-6.818434920493999e-10</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="1" ht="12.8" r="3" s="4">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>NIO</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.1385909283782561</v>
+        <v>0.04940236843182752</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.01050664818474728</v>
+        <v>0.004874956047946722</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.001176417984417368</v>
+        <v>0.0006658510531412245</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.004759879099648455</v>
+        <v>0.001320295918573152</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.009496628304978187</v>
+        <v>0.003359832712466788</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.001849711840304627</v>
+        <v>0.0009870337662536634</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>1.127368128607484e-10</v>
+        <v>7.063105906241019e-11</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>8.768050621303033e-11</v>
+        <v>5.928979741050014e-11</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.006256578361578916</v>
+        <v>0.05009332018190071</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>-0.483545571782841</v>
+        <v>-0.1849447926066939</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0.04256289451534556</v>
+        <v>0.05742110845998643</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>-0.1676105457660406</v>
+        <v>0.002509702230777608</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>-0.2060824955672104</v>
+        <v>-0.02605368655371255</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0.04853126607488272</v>
+        <v>0.06060707711143565</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0.1057432012904757</v>
+        <v>0.09216722918372917</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>-0.00447976343857507</v>
+        <v>0.02117587537034843</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0.1651425896038074</v>
+        <v>0.1234879440264581</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>0.1465595186880449</v>
+        <v>0.1428233428669331</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0.1272481894178498</v>
+        <v>0.1514204667373756</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0.1078130448519441</v>
+        <v>0.06351962870641699</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.102646633060844</v>
+        <v>0.07627017779521356</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.1093472911632663</v>
+        <v>0.1225503657347017</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>0.107830896961512</v>
+        <v>0.1368228059420201</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>0.1334118362527315</v>
+        <v>0.1831052681908809</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>-0.0798736893367518</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>0.002085175407423459</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0.0008591001259896575</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>-0.003265011017815574</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>0.0009594642852026158</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>-4.846269218695619e-05</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>-3.715059552580937e-11</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>1.195078997564915e-10</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="1" ht="12.8" r="4" s="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>TSLA</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.1501123784387246</v>
+        <v>-0.504050228824493</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.04612699993502843</v>
+        <v>-0.04851204346052285</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.004452833277145399</v>
+        <v>0.00148846321192723</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.01655896306969518</v>
+        <v>-0.02530538362744336</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.02196792746131501</v>
+        <v>-0.0632776735090539</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.005992214192937989</v>
+        <v>-0.005476894027925139</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>7.583055445389367e-10</v>
+        <v>-1.489688542604253e-10</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>5.432902149686715e-10</v>
+        <v>-4.527766923593824e-10</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.01501284839232625</v>
+        <v>1.013097110773334</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>-2.230352892383939</v>
+        <v>2.845001815500605</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.1585061151949421</v>
+        <v>0.2178889086293621</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>-0.6529687690722783</v>
+        <v>1.61267207047386</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>-0.2921015150100861</v>
+        <v>1.787214605120229</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.1659283397268095</v>
+        <v>0.3144503816190087</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>-0.2082966909096421</v>
+        <v>0.3306524070229503</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>-0.443708215485173</v>
+        <v>0.8104241086209671</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.225364770843834</v>
+        <v>0.541895838108161</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.1381882030621805</v>
+        <v>0.104084423893566</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.1172233139627159</v>
+        <v>-0.02806327205869142</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.09296147935881117</v>
+        <v>0.1018562345385133</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.05748897378551517</v>
+        <v>0.1185857709615736</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.09152875398670732</v>
+        <v>0.05991353894528866</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>0.1405952647913003</v>
+        <v>0.01981535693927166</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>0.1366492402089356</v>
+        <v>0.0819121086723172</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.8348128495112077</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.02814438052328861</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.01461190710333258</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.05727267042543521</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.01042671051894129</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.002852393602227778</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3.174484447524017e-09</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.102297081125259e-10</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="1" ht="12.8" r="5" s="4">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>PLUG</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.137114581169123</v>
+        <v>0.002141501337554703</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.08166580030685124</v>
+        <v>0.001412197835800743</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.007217073132578467</v>
+        <v>0.0001068642916901067</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0249984170025428</v>
+        <v>-0.0002222826364134583</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.04954374236238585</v>
+        <v>0.002644955403886696</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>0.0106921106147825</v>
+        <v>0.0002030815516294665</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>1.586549400427411e-10</v>
+        <v>1.756059208901884e-10</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>7.741208127169423e-11</v>
+        <v>3.000121364556456e-11</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>-0.008958351860397921</v>
+        <v>0.002014770379924333</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>-3.981024836687937</v>
+        <v>-0.06541162111845809</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0.02747215132586744</v>
+        <v>0.003747119749791333</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-1.150648239630023</v>
+        <v>0.01269247661326678</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>-1.223808236677121</v>
+        <v>-0.06308260636678317</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0.04442122561322988</v>
+        <v>0.004319888339646653</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>-0.02229436639244444</v>
+        <v>0.008767682809086056</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>-0.05326259367670187</v>
+        <v>-0.006891204257053372</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>0.4015410144813033</v>
+        <v>0.2858624128423747</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>0.1607060218261482</v>
+        <v>0.1269972498547989</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>0.1397617031435922</v>
+        <v>0.09457366515509519</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>0.09717623500396873</v>
+        <v>-0.0395004003421638</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>0.07650906078671398</v>
+        <v>0.1859754360236796</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>0.1151797229826008</v>
+        <v>0.09997465316576323</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>0.002569980053887135</v>
+        <v>0.1299693600297493</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>0.006556261721785637</v>
+        <v>0.1161476232707028</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.001896228157687162</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.0002277820174557703</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0001390295009680415</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.001065031614760299</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.002245457551767789</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.612943544500823e-05</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.705152273085189e-10</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.198998205197195e-11</v>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="1" ht="12.8" r="6" s="4">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>NKLA</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.1367167143397206</v>
+        <v>-0.02356754042639839</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.02314229710689453</v>
+        <v>0.004969432985012319</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.002204323359715545</v>
+        <v>0.0004282979206975375</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.005159682028524805</v>
+        <v>-1.898158955623247e-05</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.01701290855751802</v>
+        <v>0.01055228735097205</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0.004072116730582306</v>
+        <v>0.0007632941694383325</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>5.884292817423834e-09</v>
+        <v>-5.966345411145286e-09</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>2.531021603109672e-10</v>
+        <v>-2.153414156582772e-09</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>-0.00394161897945279</v>
+        <v>0.0137413580788218</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>-1.287373995580736</v>
+        <v>-0.2685048955323465</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>-0.06874997834314774</v>
+        <v>-0.00518679083348693</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>-0.250303064702823</v>
+        <v>0.01136904725893157</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>-0.4513940847565958</v>
+        <v>-0.2768314380148909</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>-0.06085719663435713</v>
+        <v>-0.003140026180464402</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0.05406108151807273</v>
+        <v>-0.0313086592059576</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>-0.001910059861398935</v>
+        <v>0.1264966369715441</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>0.2054564861933204</v>
+        <v>0.3348186245770081</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>0.1667226846709638</v>
+        <v>-0.3384507926567589</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0.1507470459073334</v>
+        <v>-0.2768981659099114</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>0.08168630253695956</v>
+        <v>0.002868077365266145</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>0.1345216979067013</v>
+        <v>-0.788784228309241</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>0.1330197731249609</v>
+        <v>-0.2357156381327657</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>0.1127224085050003</v>
+        <v>1.081245119833169</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>0.01512360115476023</v>
+        <v>1.220917003233234</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01653374795259507</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.01349018989072275</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0009910385456232483</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.002211684408468581</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.02739243731267229</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.001363141302623336</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-1.776200242619236e-08</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-4.938997475683575e-09</v>
       </c>
     </row>
-    <row r="7">
+    <row customHeight="1" ht="12.8" r="7" s="4">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>MSFT</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.1345400174778676</v>
+        <v>-0.0541096341920435</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.01036200100409962</v>
+        <v>-0.003641222379031455</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.001119259071693009</v>
+        <v>-0.0002117839994927389</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.003971722791948849</v>
+        <v>-0.001397930774494565</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.0006543173600419557</v>
+        <v>-0.002056322346151126</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.001466221734135586</v>
+        <v>0.0001656120923496778</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>5.019653753372684e-12</v>
+        <v>-6.605762898345022e-12</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>3.353349052686357e-11</v>
+        <v>-1.968177567690737e-11</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0.002384517343013836</v>
+        <v>0.03390898600149495</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>-0.5127426748859708</v>
+        <v>0.2181513253208743</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.01702644247593209</v>
+        <v>0.029616702507322</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>-0.1745143201006574</v>
+        <v>0.09940280097300808</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.02079050501177461</v>
+        <v>0.07162495236910421</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.01951049090438907</v>
+        <v>0.0234358523486037</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.05828798079919199</v>
+        <v>-0.004433861379156892</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.06447206528427187</v>
+        <v>0.0080995803611408</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.2208767591637097</v>
+        <v>0.2840275743716579</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.1953307709446786</v>
+        <v>0.2184469750477683</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.201067128291379</v>
+        <v>0.1210091183397872</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.1539560436556384</v>
+        <v>0.1723072480026605</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.009620442903557196</v>
+        <v>0.09633645921112184</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>0.154354047161639</v>
+        <v>-0.05548584574744336</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>0.01815311472078176</v>
+        <v>0.0763188814437902</v>
       </c>
       <c r="Y7" s="3" t="n">
-        <v>0.04664169315861624</v>
+        <v>0.0870395893306574</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.06427723582525341</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.0007559920135603266</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.0005380007220262511</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0001724943831567084</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.000300614345162068</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.001241520741423059</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-1.171055494100244e-11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.835877891997141e-13</v>
       </c>
     </row>
-    <row r="8">
+    <row customHeight="1" ht="12.8" r="8" s="4">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>SNE</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.1362359037010507</v>
+        <v>0.04812294061758202</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.01429507612645025</v>
+        <v>0.006528292434123106</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.001575430175363643</v>
+        <v>0.0007691220090598657</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.005439131765689395</v>
+        <v>0.001692095985905549</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.0004191584755106373</v>
+        <v>-0.004401840135882744</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.002068530526622674</v>
+        <v>0.0008703536350634802</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>2.348807752275892e-10</v>
+        <v>3.591106573425146e-10</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>1.078206231965275e-09</v>
+        <v>1.160527214878017e-09</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.0001337265080490603</v>
+        <v>-0.02019731447660819</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>-0.7216613100202224</v>
+        <v>-0.3465323193585201</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>-0.001553549086587638</v>
+        <v>-0.01715777661188136</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-0.2746776158112832</v>
+        <v>-0.1008198642980002</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>-0.006554733305411077</v>
+        <v>0.08651041642253654</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>-0.0009471621737110984</v>
+        <v>-0.01721461209315205</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>-0.04028419930669253</v>
+        <v>-0.07825004975081917</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>-0.03136447011002497</v>
+        <v>-0.04860117749675129</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>0.1883611222308824</v>
+        <v>0.1504144100381651</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>0.2058170513959711</v>
+        <v>0.2115744897288817</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>0.1986039076849226</v>
+        <v>0.2182611111751959</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>0.1534964713851671</v>
+        <v>0.1075773372147931</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>0.004278437920373342</v>
+        <v>-0.1012562944167314</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>0.155307547608612</v>
+        <v>0.1470940809986897</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>0.03783677720947085</v>
+        <v>0.1301952496846008</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>0.05629868456460045</v>
+        <v>0.1361396155764051</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01481586907528008</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.002144204037796057</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0008992895166178896</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.001594513840965123</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.005059605400875675</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.0004837206746742919</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3.326766940264444e-10</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.507407204559867e-10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RIDE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.0993666386958106</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0004379171543120767</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.000309601733346801</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.0004479212196223649</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.320776506969141e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.229638805502424e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2.435195673364017e-09</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-4.322269980190701e-10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.04970434143643636</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.001265933540260606</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0210489398365051</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.04571512896952831</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02980838081116663</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.02639990750855549</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.01755394451993037</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.03507520689530996</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8386489737975904</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.0899240643928004</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3775989948360345</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1441610229670474</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.003009833175451338</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.04529758573099787</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3780599913189392</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.1489408237008045</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.1300476301488365</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.0001942415507129146</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0005204863362743429</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.001011194219540862</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.001434044705019471</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0006158624168364275</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-1.980140187554167e-09</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.090542178791217e-10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FUV</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.05472797643673162</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0003093825420958424</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.74057437494632e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0008420809683314867</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.0009909824264799671</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0001575494207978359</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-2.46395291309571e-09</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.690175046013896e-10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01617953583531235</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.003421466850933194</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01230380345197831</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.02461808014284163</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04025475347290817</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01316054611684563</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.01156583775874782</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.001699101516890357</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-1.615104876163801</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.3146083621972154</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.7604367649414412</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.449595932814414</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.8299917422825385</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.8030592474813775</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-1.046515485146261</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.163911796158153</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.1504972452098424</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.0003687894108892968</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-5.674572145883221e-05</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0007641840380870556</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.0009662350027916755</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0004371811984149913</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-7.293756793771568e-09</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.40225335840764e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FCEL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0007408045831969821</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.000720540946156451</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0001023558287935293</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.058531478858599e-05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.003913846267021014</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0003316703202790692</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.599990040864839e-11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.762802877337427e-11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.003629803423480927</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.03735487555817642</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.001320391099898081</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.006150517861858352</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.089807615441849</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0003696315753246856</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.002674360749791109</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.005574269595698077</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.291846808626768</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1593104942380385</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.2126688565031265</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.0218347382931187</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.7282736327803382</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.3880024289262473</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.02256006451761871</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.2157438589289567</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.000985607017858637</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.002664698064723797</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-3.909855177660401e-05</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.000928293185743336</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.003580747536310438</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0007968489461046815</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2.180324395724531e-11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2.263064046869857e-11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BLNK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05245435979547292</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.004500449461706256</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0007009136679118958</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00295586803972132</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.001243611838996613</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0007948218078886895</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.885824905819943e-10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.973985826782443e-10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.04256723441679875</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.1637272668361864</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0572796520235539</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.07146390463097962</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01746374443545767</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.06010365643033865</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.03099713500588243</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.1503066404496664</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1065314800463641</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.1404723390390075</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.1785364664941053</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1356174133582592</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.04194924244465304</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.1096436251272432</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.02503116154139152</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.262218271948976</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.2469493199113309</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.01242925388375943</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.001738434031036774</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.002697560559684754</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.006460619521963052</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.0003612907507092597</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4.772433024366454e-09</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.349041083531257e-09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CBAT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.02690211522730953</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.0004281572497471209</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5.425868611448391e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.0004116828312537652</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-9.816075727263508e-05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-8.299800167386215e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-5.412644563487986e-10</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.09244097703147e-11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001219023513038413</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.02273460197101669</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0003677457155190729</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0169520467156279</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.003989507300270047</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9.497614978544394e-05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.01019623461618523</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0005057320054431408</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.3607019558947575</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.128161027268479</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0969888918051041</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.1675060622407474</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.03316227956410318</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.07648031489561107</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.1667321999535447</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.02973273162234674</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.02797895808597925</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.0002200841768724311</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.113583603856846e-06</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.0004892469549767515</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.0002000383026290459</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.0001174843783650428</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-9.104132572378196e-10</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-1.349748404448964e-10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.01486524405208291</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.01476785616982989</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.0007021093500898875</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.005694415167319646</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02195094853388629</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.002264740072354747</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.726376366230768e-10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.993181357328388e-09</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6708466690670682</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.401069328784643</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6224659705569602</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9189102761269642</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.150037791206968</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6341144552524045</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.2752686699340866</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.5295635848339084</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.5936853266116513</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.396519521611096</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.1755097832506744</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.3021066976144631</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.4511837281324789</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-0.3235446521638817</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.536256262219553</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.706293447164693</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.03205551607680336</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.005956269669566779</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.00144423683650702</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.007177963486478553</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.01026437585921658</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.001171926455534823</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-1.400480449436565e-09</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>5.144159342037757e-09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.7595710618593282</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.01585066418546302</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.0005195838002604999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.002116486743897736</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.03003559627828112</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.001349124155467507</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-1.305183689506533e-12</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-6.553476436790184e-13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.128745211767862</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8826561407014151</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02066879367755551</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1261374999451069</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8019611905530514</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.03026039308196496</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.06612163408551165</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.05031907371274774</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.4117709772696416</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.1507939534586172</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.04225466765213376</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.03776598309409358</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2424494258854562</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0649090360954908</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.0311322282298976</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.01892372831466918</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.8401959318119073</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.007683874957744845</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.0007657789360288736</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.00307138575735243</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.02412185816764734</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.001838346919314561</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-2.401726255053141e-12</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>4.414392595303401e-12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.009557957179367471</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.001955625010117703</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-9.7957344240074e-05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.001080457794420291</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.009694859488805933</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.0003777374540583942</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.313177403370592e-10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.446689533341446e-10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.08405165625626156</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1936764750546699</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.09111678827477425</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1493106072292791</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3325573123079658</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.09362837468608318</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.118346083301792</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.08459603877209362</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3456203271044367</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.2571023040408118</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.1117023198398381</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.2720184342635151</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-1.001164760451098</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.253489652316866</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.182801125333293</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.367056018474399</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.005430344965952611</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.004484172742779801</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.6275186778903e-05</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-0.001917570529813</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.008014016338686545</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-0.0009112731699334378</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.910117231540626e-11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1.372073061783218e-10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.02232679991000623</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01504009117117437</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.002798022263603238</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.01193402528470811</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.007001338794368834</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0005719205662411794</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.032151822599528e-09</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2.149701530137419e-09</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5579426321935922</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.1704926983617752</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7448329408392126</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.32929829702942</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8904145043512961</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6528627849070179</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6058262540951311</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.020374075110579</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.8983789186100858</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.5938712782381678</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.9756329671427656</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8478133689657913</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.2323570830413114</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.1110980504924805</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.3677473337284564</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.9152921619193223</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.1060315547936568</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.1879950640168573</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.01472300841972481</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.02810485425285736</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.07682431890319877</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.0002472999766014057</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.551080752501217e-07</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-1.308670173596553e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FB</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.03404535615530571</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.01174487341913565</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.001058581569367479</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.005804130579984887</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.007566945398122067</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.001492327183217618</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.470735182409393e-11</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.933407068099997e-11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1422670800280446</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7528691068315765</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1408208651753759</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4378846819163144</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2965449954541609</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1393020007692248</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1026275293414777</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.04392080973698253</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1659831238595774</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.2276150214775976</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1944380751467482</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.2233142465927237</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.121722636804464</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.1538432108167743</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.03722105098200737</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.04969526371587793</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.03091108771865475</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.004908872847024788</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.000570596860283093</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.004275163472051203</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.00536604933892512</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3.198160631671987e-05</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-9.059723449244499e-11</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>7.982747141562392e-11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.00378277511764066</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.008890023557566455</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.0006246160163651917</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.002346155075171631</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.000632240076549424</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.0003433417002995782</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.322720487113349e-10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.558923383821463e-10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1496699226973211</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6328782095968885</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1611763554746141</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.2770543149129651</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1609838936769638</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.149469120759847</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.0220548367196602</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.06695843431283097</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1769712929149521</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.050791849487771</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.385447305842023</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.087021636438844</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.1402721651262568</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.4402233173841041</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-2.354135057941545</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-1.926592509252407</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.01690470643794151</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.007261421065676399</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-0.00105424336865475</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.002855828999091077</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.002589735379812048</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.001204728793136837</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.509585207236937e-09</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-6.646928671352629e-10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.06285013447373433</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.005482418698714316</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.0004049028267868442</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.00409689256452437</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.0004343715079604331</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.0006285180832380942</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.277508536421655e-11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-5.029575131300361e-11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.07594725246148067</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3445229213246455</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.05728968007831569</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2736795029283018</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06130314201961563</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.05808691929433249</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.03707818016779759</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.05414902933197601</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.3173095959243771</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.1715622311576986</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.1237437133385348</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2581833815010237</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.01050860861167822</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.1098997643477067</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-0.01889550046413116</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.02768820558311183</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.07391164579112842</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.00518338519136685</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.0002723125630655285</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-0.005460813751905188</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.0007311193767487801</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.0001894862953042732</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>7.934219894565895e-11</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-3.520369605947825e-11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.02522842619594725</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.00113167297058762</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.897078916784776e-05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.0005865711854506852</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0009816571290013247</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0002169079232118153</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-6.199491142695102e-12</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.441940521692278e-11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.008985588689732824</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.04575911036526324</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01157095647890701</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.04135681364414839</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.01348449695579261</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.01088206341003708</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.007603350953939745</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.0006496606360798606</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.2701019745439703</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.1798373917644937</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.06534574319758023</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.1683394783708058</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.1261144257476843</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.1673498095682235</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-0.05962532308649571</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.4192154566353494</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.005649743894742789</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.0009788451157530039</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.0001718591781633888</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-0.001991961348784928</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.001083641878709564</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.0001299803666477991</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-1.891081074770585e-11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2.610250557222141e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1175,10 +2722,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="S1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Z1" activeCellId="0" pane="topLeft" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -1310,6 +2857,46 @@
       <c r="Y1" s="5" t="inlineStr">
         <is>
           <t>w7</t>
+        </is>
+      </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="AA1" s="5" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="AB1" s="5" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="AC1" s="5" t="inlineStr">
+        <is>
+          <t>a4</t>
+        </is>
+      </c>
+      <c r="AD1" s="5" t="inlineStr">
+        <is>
+          <t>a5</t>
+        </is>
+      </c>
+      <c r="AE1" s="5" t="inlineStr">
+        <is>
+          <t>a6</t>
+        </is>
+      </c>
+      <c r="AF1" s="5" t="inlineStr">
+        <is>
+          <t>a7</t>
+        </is>
+      </c>
+      <c r="AG1" s="5" t="inlineStr">
+        <is>
+          <t>a8</t>
         </is>
       </c>
     </row>
@@ -1334,10 +2921,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="W1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Z27" activeCellId="0" pane="topLeft" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -1469,6 +3056,46 @@
       <c r="Y1" s="5" t="inlineStr">
         <is>
           <t>w7</t>
+        </is>
+      </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="AA1" s="5" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="AB1" s="5" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="AC1" s="5" t="inlineStr">
+        <is>
+          <t>a4</t>
+        </is>
+      </c>
+      <c r="AD1" s="5" t="inlineStr">
+        <is>
+          <t>a5</t>
+        </is>
+      </c>
+      <c r="AE1" s="5" t="inlineStr">
+        <is>
+          <t>a6</t>
+        </is>
+      </c>
+      <c r="AF1" s="5" t="inlineStr">
+        <is>
+          <t>a7</t>
+        </is>
+      </c>
+      <c r="AG1" s="5" t="inlineStr">
+        <is>
+          <t>a8</t>
         </is>
       </c>
     </row>
@@ -2602,7 +4229,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2684,31 +4311,31 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.01653374795259507</v>
+        <v>0.0198864807539176</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>-0.01349018989072275</v>
+        <v>-0.015971897080377</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0009910385456232483</v>
+        <v>0.00115531966242257</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.002211684408468581</v>
+        <v>0.00216973121640974</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.02739243731267229</v>
+        <v>0.0273889591487733</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.001363141302623336</v>
+        <v>0.0014271575130096</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>-1.776200242619236e-08</v>
+        <v>-1.77615237196214e-08</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>-4.938997475683575e-09</v>
+        <v>-5.0032533248577e-09</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.1395138973315981</v>
+        <v>0.139513897331598</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="3" s="4">
@@ -2718,31 +4345,31 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-0.06427723582525341</v>
+        <v>-0.0493608938922811</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>-0.0007559920135603266</v>
+        <v>-0.00612027137991557</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-0.0005380007220262511</v>
+        <v>-0.000164850523355552</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0001724943831567084</v>
+        <v>-0.000221095290818279</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.000300614345162068</v>
+        <v>0.000211477606989875</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.001241520741423059</v>
+        <v>0.00145764183581373</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-1.171055494100244e-11</v>
+        <v>-9.89232748193689e-12</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>2.835877891997141e-13</v>
+        <v>4.59731323579505e-12</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.3100216411810126</v>
+        <v>0.310021641181013</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="4" s="4">
@@ -2752,31 +4379,31 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.01481586907528008</v>
+        <v>0.0226150108156243</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.002144204037796057</v>
+        <v>0.000155579870261063</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0008992895166178896</v>
+        <v>0.00103492016798735</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>-0.001594513840965123</v>
+        <v>-0.0017085434277009</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-0.005059605400875675</v>
+        <v>-0.00533501924677903</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>-0.0004837206746742919</v>
+        <v>-0.000414797189553799</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>3.326766940264444e-10</v>
+        <v>3.20152837111504e-10</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1.507407204559867e-10</v>
+        <v>1.92796195146511e-10</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.1143373646795085</v>
+        <v>0.114337364679509</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="5" s="4">
@@ -2786,31 +4413,31 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.09077986932814923</v>
+        <v>-0.0624801485075109</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.004314249365721232</v>
+        <v>-0.00280368135467533</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>9.14569398570725e-05</v>
+        <v>0.0005295173082855</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-0.002763584435228912</v>
+        <v>-0.00296285764826821</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.001624397435542726</v>
+        <v>-0.0016842730924516</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>0.00180138615355606</v>
+        <v>0.00182684179451468</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>2.353703671691291e-10</v>
+        <v>2.12254314606921e-10</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>-6.818434920493999e-10</v>
+        <v>-6.49017594810553e-10</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.3747829709688214</v>
+        <v>0.374782970968821</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="4">
@@ -2820,31 +4447,31 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.0798736893367518</v>
+        <v>-0.0571273040465563</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.002085175407423459</v>
+        <v>-0.0018281743272817</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.0008591001259896575</v>
+        <v>0.00117233015698008</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>-0.003265011017815574</v>
+        <v>-0.00364874801901066</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.0009594642852026158</v>
+        <v>-0.0005600959059326751</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>-4.846269218695619e-05</v>
+        <v>0.000158532958063364</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>-3.715059552580937e-11</v>
+        <v>-4.23053330565598e-11</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>1.195078997564915e-10</v>
+        <v>1.23621083507717e-10</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.2470382837785018</v>
+        <v>0.247038283778502</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="7" s="4">
@@ -2854,31 +4481,31 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-0.8348128495112077</v>
+        <v>-0.841431858842933</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.02814438052328861</v>
+        <v>0.0414350993238307</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.01461190710333258</v>
+        <v>0.0135607776650021</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-0.05727267042543521</v>
+        <v>-0.0560062774248135</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.01042671051894129</v>
+        <v>0.00904549208932968</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.002852393602227778</v>
+        <v>0.00217629464554853</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>3.174484447524017e-09</v>
+        <v>3.17542348935934e-09</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>5.102297081125259e-10</v>
+        <v>5.2954041386622e-10</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>-0.7437235821239465</v>
+        <v>-0.743723582123947</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="8" s="4">
@@ -2888,31 +4515,31 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.001896228157687162</v>
+        <v>0.00194803902467811</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-0.0002277820174557703</v>
+        <v>-0.000729153268092333</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.0001390295009680415</v>
+        <v>0.000176680778387285</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>-0.001065031614760299</v>
+        <v>-0.00112395345256183</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.002245457551767789</v>
+        <v>0.00211704271437484</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>8.612943544500823e-05</v>
+        <v>0.000111880248970907</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>1.705152273085189e-10</v>
+        <v>1.78636922569301e-10</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>4.198998205197195e-11</v>
+        <v>4.28086323173473e-11</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.03082075067600522</v>
+        <v>0.0308207506760052</v>
       </c>
     </row>
   </sheetData>

--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="N1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="Z14" activeCellId="0" pane="topLeft" sqref="Z14"/>
@@ -719,28 +719,28 @@
       <c r="Y2" s="3" t="n">
         <v>0.3247159235233005</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="3" t="n">
         <v>-0.09077986932814923</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="3" t="n">
         <v>0.004314249365721232</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>9.14569398570725e-05</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="3" t="n">
         <v>-0.002763584435228912</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>-0.001624397435542726</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="3" t="n">
         <v>0.00180138615355606</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>2.353703671691291e-10</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>-6.818434920493999e-10</v>
       </c>
     </row>
@@ -751,100 +751,100 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.04940236843182752</v>
+        <v>0.05039623931797096</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.004874956047946722</v>
+        <v>0.004885339467811993</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0006658510531412245</v>
+        <v>0.0006562081606678956</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.001320295918573152</v>
+        <v>0.001196386215681089</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.003359832712466788</v>
+        <v>0.003097062075598723</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.0009870337662536634</v>
+        <v>0.001017485673651554</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>7.063105906241019e-11</v>
+        <v>8.256752660991794e-11</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>5.928979741050014e-11</v>
+        <v>6.561799338846952e-11</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.05009332018190071</v>
+        <v>0.05355887480535909</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>-0.1849447926066939</v>
+        <v>-0.1816480996419906</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0.05742110845998643</v>
+        <v>0.06149626496584818</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0.002509702230777608</v>
+        <v>0.01241783665556273</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>-0.02605368655371255</v>
+        <v>-0.01442397726564471</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0.06060707711143565</v>
+        <v>0.06408628889648127</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0.09216722918372917</v>
+        <v>0.0994375089922804</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.02117587537034843</v>
+        <v>0.01934762555760162</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0.1234879440264581</v>
+        <v>0.1212796464419371</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>0.1428233428669331</v>
+        <v>0.1377885086580143</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0.1514204667373756</v>
+        <v>0.1436711357990039</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0.06351962870641699</v>
+        <v>0.0554388715728452</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.07627017779521356</v>
+        <v>0.06771371902045577</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.1225503657347017</v>
+        <v>0.1216443422618707</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>0.1368228059420201</v>
+        <v>0.1557271957076329</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>0.1831052681908809</v>
+        <v>0.1967365805382401</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>-0.0798736893367518</v>
+        <v>-0.1027675108491986</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>0.002085175407423459</v>
+        <v>0.002522372507428532</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>0.0008591001259896575</v>
+        <v>0.0008125526160724663</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>-0.003265011017815574</v>
+        <v>-0.003477701068668734</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>0.0009594642852026158</v>
+        <v>0.0008836584692562179</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>-4.846269218695619e-05</v>
+        <v>6.112030648929023e-05</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>-3.715059552580937e-11</v>
+        <v>-2.089828721131399e-11</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>1.195078997564915e-10</v>
+        <v>1.298716069187847e-10</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="4" s="4">
@@ -925,28 +925,28 @@
       <c r="Y4" s="3" t="n">
         <v>0.0819121086723172</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="3" t="n">
         <v>-0.8348128495112077</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="3" t="n">
         <v>0.02814438052328861</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="3" t="n">
         <v>0.01461190710333258</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="3" t="n">
         <v>-0.05727267042543521</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="3" t="n">
         <v>0.01042671051894129</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="3" t="n">
         <v>0.002852393602227778</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="3" t="n">
         <v>3.174484447524017e-09</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="3" t="n">
         <v>5.102297081125259e-10</v>
       </c>
     </row>
@@ -957,100 +957,100 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.002141501337554703</v>
+        <v>0.002145306048383336</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.001412197835800743</v>
+        <v>0.00144840819298609</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.0001068642916901067</v>
+        <v>0.00010798314796123</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-0.0002222826364134583</v>
+        <v>-0.0002069819097322132</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.002644955403886696</v>
+        <v>0.002745627309962403</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>0.0002030815516294665</v>
+        <v>0.0002114545501358047</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>1.756059208901884e-10</v>
+        <v>1.991255227547361e-10</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>3.000121364556456e-11</v>
+        <v>3.22994334669661e-11</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.002014770379924333</v>
+        <v>0.002340966455069344</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>-0.06541162111845809</v>
+        <v>-0.06684341889752199</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0.003747119749791333</v>
+        <v>0.004079948800980257</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0.01269247661326678</v>
+        <v>0.01233103013033764</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>-0.06308260636678317</v>
+        <v>-0.06517152268425594</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0.004319888339646653</v>
+        <v>0.004697251768180142</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0.008767682809086056</v>
+        <v>0.009826717505917869</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>-0.006891204257053372</v>
+        <v>-0.007342155176465075</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>0.2858624128423747</v>
+        <v>0.2737619956593358</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>0.1269972498547989</v>
+        <v>0.1245375365488939</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>0.09457366515509519</v>
+        <v>0.091357380165214</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>-0.0395004003421638</v>
+        <v>-0.03516554392556616</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>0.1859754360236796</v>
+        <v>0.1846939833047658</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>0.09997465316576323</v>
+        <v>0.09953757847285336</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>0.1299693600297493</v>
+        <v>0.1415952934246828</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>0.1161476232707028</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.001896228157687162</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>-0.0002277820174557703</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.0001390295009680415</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-0.001065031614760299</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.002245457551767789</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>8.612943544500823e-05</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1.705152273085189e-10</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>4.198998205197195e-11</v>
+        <v>0.1196817763498205</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>0.001894127070902696</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>-0.0002762584282613364</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>0.00013403209588074</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>-0.001044383630639011</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>0.00231004644459417</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>9.708703038635505e-05</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>1.943118137905374e-10</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>4.486536687099175e-11</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="4">
@@ -1131,28 +1131,28 @@
       <c r="Y6" s="3" t="n">
         <v>1.220917003233234</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="3" t="n">
         <v>0.01653374795259507</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="3" t="n">
         <v>-0.01349018989072275</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="3" t="n">
         <v>0.0009910385456232483</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="3" t="n">
         <v>0.002211684408468581</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="3" t="n">
         <v>0.02739243731267229</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="3" t="n">
         <v>0.001363141302623336</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="3" t="n">
         <v>-1.776200242619236e-08</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="3" t="n">
         <v>-4.938997475683575e-09</v>
       </c>
     </row>
@@ -1234,28 +1234,28 @@
       <c r="Y7" s="3" t="n">
         <v>0.0870395893306574</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7" s="3" t="n">
         <v>-0.06427723582525341</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="3" t="n">
         <v>-0.0007559920135603266</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="3" t="n">
         <v>-0.0005380007220262511</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="3" t="n">
         <v>0.0001724943831567084</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="3" t="n">
         <v>0.000300614345162068</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="3" t="n">
         <v>0.001241520741423059</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="3" t="n">
         <v>-1.171055494100244e-11</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="3" t="n">
         <v>2.835877891997141e-13</v>
       </c>
     </row>
@@ -1337,1368 +1337,3943 @@
       <c r="Y8" s="3" t="n">
         <v>0.1361396155764051</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8" s="3" t="n">
         <v>0.01481586907528008</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="3" t="n">
         <v>0.002144204037796057</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="3" t="n">
         <v>0.0008992895166178896</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="3" t="n">
         <v>-0.001594513840965123</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="3" t="n">
         <v>-0.005059605400875675</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="3" t="n">
         <v>-0.0004837206746742919</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="3" t="n">
         <v>3.326766940264444e-10</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="3" t="n">
         <v>1.507407204559867e-10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>RIDE</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.0993666386958106</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0004379171543120767</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.000309601733346801</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.0004479212196223649</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-1.320776506969141e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8.229638805502424e-05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-2.435195673364017e-09</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-4.322269980190701e-10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.04970434143643636</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.001265933540260606</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0210489398365051</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.04571512896952831</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.02980838081116663</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.02639990750855549</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.01755394451993037</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.03507520689530996</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.8386489737975904</v>
-      </c>
-      <c r="S9" t="n">
-        <v>-0.0899240643928004</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.3775989948360345</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.1441610229670474</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.003009833175451338</v>
-      </c>
-      <c r="W9" t="n">
-        <v>-0.04529758573099787</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.3780599913189392</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.1489408237008045</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>-0.1300476301488365</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>-0.0001942415507129146</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.0005204863362743429</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-0.001011194219540862</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.001434044705019471</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.0006158624168364275</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>-1.980140187554167e-09</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>6.090542178791217e-10</v>
+      <c r="B9" s="3" t="n">
+        <v>-0.09950283225257336</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.0004275207739694086</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.0003107117527723605</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>-0.0004383146416899989</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>-3.792191993734842e-05</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>8.726888546325284e-05</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>-2.376846970477589e-09</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>-3.965322619301999e-10</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.05003883013912414</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0.002286428283110286</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0.02135898817149789</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.04572179797888963</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.03134345874790334</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0.02665383124982907</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0.01764908786909946</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>0.03487696347770997</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0.8420901084458725</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>-0.08804448776328422</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>-0.3799902347597827</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>0.1415264158775981</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>0.008686986387314669</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>-0.0481881265593312</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>0.3858122569003169</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0.1381070814712961</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>-0.1302441440893875</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>-0.0001819305784121789</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0.0005202339090206304</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>-0.001016834329122103</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>0.001429266275457585</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0.0006053995332329224</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>-1.862128311089705e-09</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>6.224827878873581e-10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>FUV</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.05472797643673162</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0003093825420958424</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.74057437494632e-05</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0008420809683314867</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.0009909824264799671</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0001575494207978359</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-2.46395291309571e-09</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.690175046013896e-10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.01617953583531235</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.003421466850933194</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.01230380345197831</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.02461808014284163</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.04025475347290817</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.01316054611684563</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.01156583775874782</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.001699101516890357</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-1.615104876163801</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.3146083621972154</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.7604367649414412</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.449595932814414</v>
-      </c>
-      <c r="V10" t="n">
-        <v>-0.8299917422825385</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.8030592474813775</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-1.046515485146261</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.163911796158153</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>-0.1504972452098424</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>-0.0003687894108892968</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>-5.674572145883221e-05</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.0007641840380870556</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>-0.0009662350027916755</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.0004371811984149913</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>-7.293756793771568e-09</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>3.40225335840764e-09</v>
+      <c r="B10" s="3" t="n">
+        <v>-0.05393537836403323</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.000311397409049002</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>7.751331822672912e-05</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.0008428098770594993</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>-0.0009863834271083875</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.0001579643084152683</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>-2.362339577710497e-09</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>6.627990597748025e-10</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.01623086803612098</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>-0.003488571152115537</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0.01233532134174473</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>-0.02462989203605781</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0.04017158225823043</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0.0131793512003115</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0.01161298987063503</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0.001745929720418698</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>-1.512499505966422</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>0.2995611356053354</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>0.7201863900189271</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>1.37252679176942</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>-0.7817144086625757</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>0.7627565035548362</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>-0.9621786783245827</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>1.101361772005061</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>-0.1506809619619859</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>-0.0003717526691014868</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>-5.721876705808651e-05</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>0.0007657717569366034</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>-0.0009627590288392267</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>0.0004387729120450813</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>-7.261301727046261e-09</v>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>3.403282904777632e-09</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>FCEL</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.0007408045831969821</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000720540946156451</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0001023558287935293</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.058531478858599e-05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.003913846267021014</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0003316703202790692</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.599990040864839e-11</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.762802877337427e-11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-0.003629803423480927</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-0.03735487555817642</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-0.001320391099898081</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-0.006150517861858352</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.089807615441849</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.0003696315753246856</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-0.002674360749791109</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>-0.005574269595698077</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.291846808626768</v>
-      </c>
-      <c r="S11" t="n">
-        <v>-0.1593104942380385</v>
-      </c>
-      <c r="T11" t="n">
-        <v>-0.2126688565031265</v>
-      </c>
-      <c r="U11" t="n">
-        <v>-0.0218347382931187</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.7282736327803382</v>
-      </c>
-      <c r="W11" t="n">
-        <v>-0.3880024289262473</v>
-      </c>
-      <c r="X11" t="n">
-        <v>-0.02256006451761871</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-0.2157438589289567</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>-0.000985607017858637</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.002664698064723797</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>-3.909855177660401e-05</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>-0.000928293185743336</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>-0.003580747536310438</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.0007968489461046815</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2.180324395724531e-11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2.263064046869857e-11</v>
+      <c r="B11" s="3" t="n">
+        <v>-0.0007407564114147303</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.0007362356289687547</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.0001032680552616506</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>5.726505565477611e-05</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>-0.003853122938502725</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.0003338843794955039</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>8.024516165952452e-11</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>4.150789987735635e-11</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>-0.003471066901828992</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>-0.03795954563181387</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>-0.00115494981096923</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>-0.006293577479190456</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0.08854966649477579</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>0.0005426440991054014</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>-0.002354107078946419</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>-0.005722351277901704</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1.394418964125376</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>-0.1757397499918859</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>-0.2316246123780007</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>-0.02668470171669423</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>0.7747437437608872</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>-0.4216642817303016</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>-0.05475652042528982</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>-0.2586928416440906</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>-0.0009853809687925209</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>0.002648835868172687</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>-3.981010002571755e-05</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>-0.0009237449174796628</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>-0.003555108727999498</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>0.0007980159401950322</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>5.737538018990607e-11</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>2.595153412287243e-11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>BLNK</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.05245435979547292</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.004500449461706256</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0007009136679118958</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.00295586803972132</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.001243611838996613</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0007948218078886895</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.885824905819943e-10</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.973985826782443e-10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.04256723441679875</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-0.1637272668361864</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0572796520235539</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.07146390463097962</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.01746374443545767</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.06010365643033865</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.03099713500588243</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.1503066404496664</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.1065314800463641</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.1404723390390075</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.1785364664941053</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.1356174133582592</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.04194924244465304</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.1096436251272432</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.02503116154139152</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.262218271948976</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>-0.2469493199113309</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>-0.01242925388375943</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.001738434031036774</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-0.002697560559684754</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.006460619521963052</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.0003612907507092597</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>4.772433024366454e-09</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.349041083531257e-09</v>
+      <c r="B12" s="3" t="n">
+        <v>0.09663237624681487</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.004899244787076143</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.0007328520085366455</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.003330862601283159</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.001948701240708157</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.0009610771942114523</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1.512507958877088e-09</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1.052697196972591e-09</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0.03844054442358039</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>-0.1762950425237294</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0.06412127721371183</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>-0.08059627716054624</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0.003525869050768815</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>0.06815745344793726</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>0.01005111644062673</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>-0.1780479876606</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0.1582605562179531</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>0.1192160438086868</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>0.145485115476596</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <v>0.1191979157585111</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>0.0513165096025697</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>0.1034903841175247</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>0.06103258005964681</v>
+      </c>
+      <c r="Y12" s="3" t="n">
+        <v>0.2420008949585119</v>
+      </c>
+      <c r="Z12" s="3" t="n">
+        <v>-0.1834847045158545</v>
+      </c>
+      <c r="AA12" s="3" t="n">
+        <v>-0.0124886077910386</v>
+      </c>
+      <c r="AB12" s="3" t="n">
+        <v>0.001558657752158317</v>
+      </c>
+      <c r="AC12" s="3" t="n">
+        <v>-0.00203429658394592</v>
+      </c>
+      <c r="AD12" s="3" t="n">
+        <v>0.0060908117052651</v>
+      </c>
+      <c r="AE12" s="3" t="n">
+        <v>0.0003675916369113114</v>
+      </c>
+      <c r="AF12" s="3" t="n">
+        <v>4.698384651780204e-09</v>
+      </c>
+      <c r="AG12" s="3" t="n">
+        <v>2.244591923863835e-09</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>CBAT</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-0.02690211522730953</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.0004281572497471209</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5.425868611448391e-05</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.0004116828312537652</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-9.816075727263508e-05</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-8.299800167386215e-05</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-5.412644563487986e-10</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.09244097703147e-11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.001219023513038413</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.02273460197101669</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0003677457155190729</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.0169520467156279</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.003989507300270047</v>
-      </c>
-      <c r="O13" t="n">
-        <v>9.497614978544394e-05</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-0.01019623461618523</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.0005057320054431408</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.3607019558947575</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.128161027268479</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0969888918051041</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.1675060622407474</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.03316227956410318</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.07648031489561107</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.1667321999535447</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-0.02973273162234674</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>-0.02797895808597925</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.0002200841768724311</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.113583603856846e-06</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>-0.0004892469549767515</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>-0.0002000383026290459</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.0001174843783650428</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>-9.104132572378196e-10</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>-1.349748404448964e-10</v>
+      <c r="B13" s="3" t="n">
+        <v>-0.02690110569115273</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>-0.0004283421549862337</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>-5.425139992930206e-05</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>-0.0004109219707503083</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>-9.883156481428101e-05</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>-8.275817211984508e-05</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>-5.438435653682789e-10</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>3.416521564509677e-11</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0.00124304691536037</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0.02276748024671222</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0.0003916473686665351</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0.0169480935303868</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0.004032952048157327</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>0.000122120783928762</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>-0.01023279430373696</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>0.0004599728805055397</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>0.361696647910799</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>0.1285750535219143</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>0.09724694168472686</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <v>0.1676740726181383</v>
+      </c>
+      <c r="V13" s="3" t="n">
+        <v>0.03348351664577038</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>0.07647507972411048</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>0.1681387885810702</v>
+      </c>
+      <c r="Y13" s="3" t="n">
+        <v>-0.03329010068652962</v>
+      </c>
+      <c r="Z13" s="3" t="n">
+        <v>-0.02804728750807676</v>
+      </c>
+      <c r="AA13" s="3" t="n">
+        <v>0.0002232358801446622</v>
+      </c>
+      <c r="AB13" s="3" t="n">
+        <v>8.34132288326264e-06</v>
+      </c>
+      <c r="AC13" s="3" t="n">
+        <v>-0.0004870746121777019</v>
+      </c>
+      <c r="AD13" s="3" t="n">
+        <v>-0.000203477876955249</v>
+      </c>
+      <c r="AE13" s="3" t="n">
+        <v>0.000118181020270584</v>
+      </c>
+      <c r="AF13" s="3" t="n">
+        <v>-8.968393747005854e-10</v>
+      </c>
+      <c r="AG13" s="3" t="n">
+        <v>-1.267890051481866e-10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>AMZN</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="3" t="n">
         <v>-0.01486524405208291</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="3" t="n">
         <v>-0.01476785616982989</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3" t="n">
         <v>-0.0007021093500898875</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="3" t="n">
         <v>-0.005694415167319646</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="3" t="n">
         <v>-0.02195094853388629</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="3" t="n">
         <v>-0.002264740072354747</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="3" t="n">
         <v>9.726376366230768e-10</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="3" t="n">
         <v>1.993181357328388e-09</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="3" t="n">
         <v>0.6708466690670682</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="3" t="n">
         <v>1.401069328784643</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="3" t="n">
         <v>0.6224659705569602</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="3" t="n">
         <v>0.9189102761269642</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="3" t="n">
         <v>1.150037791206968</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="3" t="n">
         <v>0.6341144552524045</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="3" t="n">
         <v>-0.2752686699340866</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="3" t="n">
         <v>-0.5295635848339084</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="3" t="n">
         <v>-0.5936853266116513</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="3" t="n">
         <v>-0.396519521611096</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="3" t="n">
         <v>-0.1755097832506744</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="3" t="n">
         <v>-0.3021066976144631</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="3" t="n">
         <v>-0.4511837281324789</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="3" t="n">
         <v>-0.3235446521638817</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="3" t="n">
         <v>1.536256262219553</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="3" t="n">
         <v>1.706293447164693</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="3" t="n">
         <v>-0.03205551607680336</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="3" t="n">
         <v>-0.005956269669566779</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="3" t="n">
         <v>0.00144423683650702</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="3" t="n">
         <v>-0.007177963486478553</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="3" t="n">
         <v>-0.01026437585921658</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="3" t="n">
         <v>-0.001171926455534823</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="3" t="n">
         <v>-1.400480449436565e-09</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="3" t="n">
         <v>5.144159342037757e-09</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>AAPL</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="3" t="n">
         <v>-0.7595710618593282</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3" t="n">
         <v>-0.01585066418546302</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>-0.0005195838002604999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="3" t="n">
         <v>-0.002116486743897736</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="3" t="n">
         <v>-0.03003559627828112</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="3" t="n">
         <v>-0.001349124155467507</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="3" t="n">
         <v>-1.305183689506533e-12</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="3" t="n">
         <v>-6.553476436790184e-13</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="3" t="n">
         <v>0.128745211767862</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="3" t="n">
         <v>0.8826561407014151</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="3" t="n">
         <v>0.02066879367755551</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="3" t="n">
         <v>0.1261374999451069</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="3" t="n">
         <v>0.8019611905530514</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="3" t="n">
         <v>0.03026039308196496</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="3" t="n">
         <v>0.06612163408551165</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="3" t="n">
         <v>0.05031907371274774</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="3" t="n">
         <v>0.4117709772696416</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="3" t="n">
         <v>0.1507939534586172</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="3" t="n">
         <v>0.04225466765213376</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="3" t="n">
         <v>0.03776598309409358</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="3" t="n">
         <v>0.2424494258854562</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="3" t="n">
         <v>0.0649090360954908</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="3" t="n">
         <v>0.0311322282298976</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="3" t="n">
         <v>0.01892372831466918</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="3" t="n">
         <v>-0.8401959318119073</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="3" t="n">
         <v>0.007683874957744845</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="3" t="n">
         <v>-0.0007657789360288736</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="3" t="n">
         <v>0.00307138575735243</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="3" t="n">
         <v>-0.02412185816764734</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="3" t="n">
         <v>0.001838346919314561</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="3" t="n">
         <v>-2.401726255053141e-12</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="3" t="n">
         <v>4.414392595303401e-12</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>NVDA</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.009557957179367471</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.001955625010117703</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-9.7957344240074e-05</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.001080457794420291</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.009694859488805933</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.0003777374540583942</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.313177403370592e-10</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.446689533341446e-10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.08405165625626156</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.1936764750546699</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.09111678827477425</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.1493106072292791</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.3325573123079658</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.09362837468608318</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.118346083301792</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.08459603877209362</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.3456203271044367</v>
-      </c>
-      <c r="S16" t="n">
-        <v>-0.2571023040408118</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-0.1117023198398381</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-0.2720184342635151</v>
-      </c>
-      <c r="V16" t="n">
-        <v>-1.001164760451098</v>
-      </c>
-      <c r="W16" t="n">
-        <v>-0.253489652316866</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.182801125333293</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.367056018474399</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>-0.005430344965952611</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.004484172742779801</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8.6275186778903e-05</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>-0.001917570529813</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>-0.008014016338686545</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>-0.0009112731699334378</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7.910117231540626e-11</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1.372073061783218e-10</v>
+      <c r="B16" s="3" t="n">
+        <v>0.009041112908148248</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>-0.002048626053345507</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>-0.0001116740311793558</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>-0.00116193686318324</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>-0.009859775750774579</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>-0.0004158111978597397</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>2.380306506601331e-10</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1.482990876832296e-10</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.08593369448153047</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0.2001375787472012</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0.09285962338645316</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0.1551562225785236</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0.3381648098794459</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>0.09554936538659431</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>0.1205410709067636</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>-0.08760133955038912</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>0.3405915403050968</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>-0.2805619314319997</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>-0.1326595935261144</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>-0.3047642695451588</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>-1.060720445747477</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>-0.29073389389584</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>1.268422385631896</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>1.460426208209597</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>-0.00634150042066026</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>0.004686757977728318</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>9.636547661687089e-05</v>
+      </c>
+      <c r="AC16" s="3" t="n">
+        <v>-0.00204016078148588</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>-0.008200544958956677</v>
+      </c>
+      <c r="AE16" s="3" t="n">
+        <v>-0.0009548499833224015</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>8.467703106721686e-11</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>1.39987681586578e-10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>ZM</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.02232679991000623</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01504009117117437</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.002798022263603238</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.01193402528470811</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.007001338794368834</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.0005719205662411794</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.032151822599528e-09</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-2.149701530137419e-09</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5579426321935922</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.1704926983617752</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.7448329408392126</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.32929829702942</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.8904145043512961</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.6528627849070179</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.6058262540951311</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.020374075110579</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-0.8983789186100858</v>
-      </c>
-      <c r="S17" t="n">
-        <v>-0.5938712782381678</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.9756329671427656</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.8478133689657913</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.2323570830413114</v>
-      </c>
-      <c r="W17" t="n">
-        <v>-0.1110980504924805</v>
-      </c>
-      <c r="X17" t="n">
-        <v>-0.3677473337284564</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.9152921619193223</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>-0.1060315547936568</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.1879950640168573</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>-0.01472300841972481</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>-0.02810485425285736</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.07682431890319877</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.0002472999766014057</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.551080752501217e-07</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>-1.308670173596553e-07</v>
+      <c r="B17" s="3" t="n">
+        <v>0.0225111968005118</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.0152748210029926</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>-0.002723192197288814</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>-0.01158403783276027</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>-0.00676922813762405</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.0006012256611962006</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>9.949200168946281e-10</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>-2.166263214204603e-09</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0.5555139381797742</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>-0.1851496061366479</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0.7389578589048773</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>1.306239885346492</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0.880911642901231</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>0.6499237089609018</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>0.6057817226080103</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>1.021724497371839</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>-0.9627435166747261</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>-0.6408034812478298</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>1.010192646358768</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>0.875555298494553</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>0.2380151790703114</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>-0.1236978565099804</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>-0.3761381621576003</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>0.9796198926665035</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>-0.1066085100943442</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>0.1880880934432356</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>-0.0147485050119016</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>-0.02830145032313732</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>0.07671690003498317</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>0.0003067798489792058</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>1.550249063655037e-07</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>-1.307386536101353e-07</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>FB</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="3" t="n">
         <v>-0.03404535615530571</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="3" t="n">
         <v>-0.01174487341913565</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="3" t="n">
         <v>-0.001058581569367479</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="3" t="n">
         <v>-0.005804130579984887</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="3" t="n">
         <v>-0.007566945398122067</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="3" t="n">
         <v>-0.001492327183217618</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="3" t="n">
         <v>2.470735182409393e-11</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="3" t="n">
         <v>1.933407068099997e-11</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="3" t="n">
         <v>0.1422670800280446</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="3" t="n">
         <v>0.7528691068315765</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="3" t="n">
         <v>0.1408208651753759</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="3" t="n">
         <v>0.4378846819163144</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="3" t="n">
         <v>0.2965449954541609</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="3" t="n">
         <v>0.1393020007692248</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="3" t="n">
         <v>0.1026275293414777</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="3" t="n">
         <v>0.04392080973698253</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="3" t="n">
         <v>0.1659831238595774</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="3" t="n">
         <v>0.2276150214775976</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="3" t="n">
         <v>0.1944380751467482</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" s="3" t="n">
         <v>0.2233142465927237</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="3" t="n">
         <v>0.121722636804464</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" s="3" t="n">
         <v>0.1538432108167743</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18" s="3" t="n">
         <v>-0.03722105098200737</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" s="3" t="n">
         <v>-0.04969526371587793</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18" s="3" t="n">
         <v>-0.03091108771865475</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="3" t="n">
         <v>0.004908872847024788</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="3" t="n">
         <v>-0.000570596860283093</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="3" t="n">
         <v>-0.004275163472051203</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="3" t="n">
         <v>-0.00536604933892512</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="3" t="n">
         <v>3.198160631671987e-05</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="3" t="n">
         <v>-9.059723449244499e-11</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="3" t="n">
         <v>7.982747141562392e-11</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>PYPL</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="3" t="n">
         <v>-0.00378277511764066</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="3" t="n">
         <v>-0.008890023557566455</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="3" t="n">
         <v>-0.0006246160163651917</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="3" t="n">
         <v>-0.002346155075171631</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="3" t="n">
         <v>-0.000632240076549424</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="3" t="n">
         <v>-0.0003433417002995782</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="3" t="n">
         <v>5.322720487113349e-10</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="3" t="n">
         <v>3.558923383821463e-10</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="3" t="n">
         <v>0.1496699226973211</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="3" t="n">
         <v>0.6328782095968885</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="3" t="n">
         <v>0.1611763554746141</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="3" t="n">
         <v>0.2770543149129651</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="3" t="n">
         <v>0.1609838936769638</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="3" t="n">
         <v>0.149469120759847</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="3" t="n">
         <v>-0.0220548367196602</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="3" t="n">
         <v>0.06695843431283097</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="3" t="n">
         <v>0.1769712929149521</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="3" t="n">
         <v>2.050791849487771</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="3" t="n">
         <v>1.385447305842023</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" s="3" t="n">
         <v>1.087021636438844</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" s="3" t="n">
         <v>0.1402721651262568</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19" s="3" t="n">
         <v>0.4402233173841041</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19" s="3" t="n">
         <v>-2.354135057941545</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19" s="3" t="n">
         <v>-1.926592509252407</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19" s="3" t="n">
         <v>-0.01690470643794151</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="3" t="n">
         <v>-0.007261421065676399</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="3" t="n">
         <v>-0.00105424336865475</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="3" t="n">
         <v>0.002855828999091077</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="3" t="n">
         <v>0.002589735379812048</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="3" t="n">
         <v>0.001204728793136837</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="3" t="n">
         <v>1.509585207236937e-09</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="3" t="n">
         <v>-6.646928671352629e-10</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>CRM</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="3" t="n">
         <v>-0.06285013447373433</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="3" t="n">
         <v>-0.005482418698714316</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="3" t="n">
         <v>-0.0004049028267868442</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="3" t="n">
         <v>-0.00409689256452437</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="3" t="n">
         <v>-0.0004343715079604331</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="3" t="n">
         <v>-0.0006285180832380942</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="3" t="n">
         <v>1.277508536421655e-11</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="3" t="n">
         <v>-5.029575131300361e-11</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="3" t="n">
         <v>0.07594725246148067</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="3" t="n">
         <v>0.3445229213246455</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="3" t="n">
         <v>0.05728968007831569</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="3" t="n">
         <v>0.2736795029283018</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="3" t="n">
         <v>0.06130314201961563</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="3" t="n">
         <v>0.05808691929433249</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="3" t="n">
         <v>0.03707818016779759</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="3" t="n">
         <v>0.05414902933197601</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="3" t="n">
         <v>0.3173095959243771</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" s="3" t="n">
         <v>0.1715622311576986</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" s="3" t="n">
         <v>0.1237437133385348</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" s="3" t="n">
         <v>0.2581833815010237</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20" s="3" t="n">
         <v>0.01050860861167822</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20" s="3" t="n">
         <v>0.1098997643477067</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20" s="3" t="n">
         <v>-0.01889550046413116</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20" s="3" t="n">
         <v>0.02768820558311183</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20" s="3" t="n">
         <v>-0.07391164579112842</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="3" t="n">
         <v>0.00518338519136685</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="3" t="n">
         <v>0.0002723125630655285</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="3" t="n">
         <v>-0.005460813751905188</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="3" t="n">
         <v>0.0007311193767487801</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="3" t="n">
         <v>0.0001894862953042732</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="3" t="n">
         <v>7.934219894565895e-11</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="3" t="n">
         <v>-3.520369605947825e-11</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>AMD</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.02522842619594725</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="3" t="n">
         <v>0.00113167297058762</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="3" t="n">
         <v>4.897078916784776e-05</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="3" t="n">
         <v>-0.0005865711854506852</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="3" t="n">
         <v>0.0009816571290013247</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="3" t="n">
         <v>0.0002169079232118153</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="3" t="n">
         <v>-6.199491142695102e-12</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="3" t="n">
         <v>2.441940521692278e-11</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="3" t="n">
         <v>0.008985588689732824</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="3" t="n">
         <v>-0.04575911036526324</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="3" t="n">
         <v>0.01157095647890701</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="3" t="n">
         <v>0.04135681364414839</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="3" t="n">
         <v>-0.01348449695579261</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="3" t="n">
         <v>0.01088206341003708</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="3" t="n">
         <v>0.007603350953939745</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="3" t="n">
         <v>-0.0006496606360798606</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="3" t="n">
         <v>0.2701019745439703</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="3" t="n">
         <v>0.1798373917644937</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="3" t="n">
         <v>0.06534574319758023</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="3" t="n">
         <v>-0.1683394783708058</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="3" t="n">
         <v>0.1261144257476843</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="3" t="n">
         <v>0.1673498095682235</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="3" t="n">
         <v>-0.05962532308649571</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="3" t="n">
         <v>0.4192154566353494</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="3" t="n">
         <v>0.005649743894742789</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="3" t="n">
         <v>0.0009788451157530039</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="3" t="n">
         <v>0.0001718591781633888</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="3" t="n">
         <v>-0.001991961348784928</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="3" t="n">
         <v>0.001083641878709564</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="3" t="n">
         <v>0.0001299803666477991</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="3" t="n">
         <v>-1.891081074770585e-11</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="3" t="n">
         <v>2.610250557222141e-11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>SPGI</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>-0.01119722992502355</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>-0.003701603578635766</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>-0.0003789017189541824</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>-0.001189739522935343</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.001661291525012952</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0.0001285073918304794</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>4.263712719486575e-10</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>7.714315049527943e-11</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>0.05785832520351805</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>0.2527261126481977</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0.06054670708856976</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0.1183310135392882</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0.01120763534111797</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>0.05009380570360158</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>-0.04906293173688353</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>0.05793310402608886</v>
+      </c>
+      <c r="R22" s="3" t="n">
+        <v>0.5050739595673527</v>
+      </c>
+      <c r="S22" s="3" t="n">
+        <v>0.9716128295830937</v>
+      </c>
+      <c r="T22" s="3" t="n">
+        <v>0.9204847944026407</v>
+      </c>
+      <c r="U22" s="3" t="n">
+        <v>0.6254610255318152</v>
+      </c>
+      <c r="V22" s="3" t="n">
+        <v>-0.3647664179664866</v>
+      </c>
+      <c r="W22" s="3" t="n">
+        <v>-0.1799685274281436</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <v>-1.366249090121674</v>
+      </c>
+      <c r="Y22" s="3" t="n">
+        <v>-0.1116485735685976</v>
+      </c>
+      <c r="Z22" s="3" t="n">
+        <v>-0.02147207360959598</v>
+      </c>
+      <c r="AA22" s="3" t="n">
+        <v>-0.003634666237082891</v>
+      </c>
+      <c r="AB22" s="3" t="n">
+        <v>-0.0007807021975607096</v>
+      </c>
+      <c r="AC22" s="3" t="n">
+        <v>0.001094764800430395</v>
+      </c>
+      <c r="AD22" s="3" t="n">
+        <v>0.002713337297166026</v>
+      </c>
+      <c r="AE22" s="3" t="n">
+        <v>0.001467633848699257</v>
+      </c>
+      <c r="AF22" s="3" t="n">
+        <v>5.766052348587134e-10</v>
+      </c>
+      <c r="AG22" s="3" t="n">
+        <v>3.037062636836245e-10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>ANTM</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>-0.05342096766257099</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>-0.006423003728936759</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>-0.0005261683233614162</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>-0.003584495058057643</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.005136308629855738</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>-0.0006670420384270004</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>4.351523139227454e-10</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>-8.760243268912474e-10</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>0.06350392091500416</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>0.3823313540689194</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0.05320864799408266</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0.2379478524352114</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>-0.08302032869298205</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>0.05249735267392491</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>-0.01069523574423044</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>0.01177580032848319</v>
+      </c>
+      <c r="R23" s="3" t="n">
+        <v>0.3780793109963289</v>
+      </c>
+      <c r="S23" s="3" t="n">
+        <v>0.1994173230685302</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>0.1485568339421894</v>
+      </c>
+      <c r="U23" s="3" t="n">
+        <v>0.2143155441975362</v>
+      </c>
+      <c r="V23" s="3" t="n">
+        <v>-0.1338726819843361</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>0.107580984062195</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>-0.04877977323353593</v>
+      </c>
+      <c r="Y23" s="3" t="n">
+        <v>0.1347024589510924</v>
+      </c>
+      <c r="Z23" s="3" t="n">
+        <v>-0.06102484576323093</v>
+      </c>
+      <c r="AA23" s="3" t="n">
+        <v>0.001271952178244852</v>
+      </c>
+      <c r="AB23" s="3" t="n">
+        <v>0.0002298161803458322</v>
+      </c>
+      <c r="AC23" s="3" t="n">
+        <v>-0.004385672403500995</v>
+      </c>
+      <c r="AD23" s="3" t="n">
+        <v>0.003840569986057415</v>
+      </c>
+      <c r="AE23" s="3" t="n">
+        <v>0.0008914027976512715</v>
+      </c>
+      <c r="AF23" s="3" t="n">
+        <v>8.67474867772589e-10</v>
+      </c>
+      <c r="AG23" s="3" t="n">
+        <v>-8.108390176143547e-10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>-0.02176613366228175</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>-0.005320240379734352</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>-0.0004455082246465031</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>-0.002646025037367274</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0.003380442178428242</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>-0.0006300449144453378</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>1.876475247902332e-10</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>9.567960913315222e-11</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>0.04944827350910178</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>0.3255579906243138</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0.05034715430915693</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>0.1848748668344525</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>-0.03612899055900198</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>0.04978776860212231</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>-0.0184118823460268</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>0.02404655324460222</v>
+      </c>
+      <c r="R24" s="3" t="n">
+        <v>0.2191603737388872</v>
+      </c>
+      <c r="S24" s="3" t="n">
+        <v>0.3708962679250221</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>0.296634886239813</v>
+      </c>
+      <c r="U24" s="3" t="n">
+        <v>0.3765178658062125</v>
+      </c>
+      <c r="V24" s="3" t="n">
+        <v>-0.1894807623697079</v>
+      </c>
+      <c r="W24" s="3" t="n">
+        <v>0.2443414710567952</v>
+      </c>
+      <c r="X24" s="3" t="n">
+        <v>-0.2257530739252153</v>
+      </c>
+      <c r="Y24" s="3" t="n">
+        <v>-0.09231702847180676</v>
+      </c>
+      <c r="Z24" s="3" t="n">
+        <v>-0.01229525319417053</v>
+      </c>
+      <c r="AA24" s="3" t="n">
+        <v>-0.00240304138761554</v>
+      </c>
+      <c r="AB24" s="3" t="n">
+        <v>0.0001172565275880864</v>
+      </c>
+      <c r="AC24" s="3" t="n">
+        <v>-0.00179323738179927</v>
+      </c>
+      <c r="AD24" s="3" t="n">
+        <v>0.005284634626941982</v>
+      </c>
+      <c r="AE24" s="3" t="n">
+        <v>-6.743454410291296e-05</v>
+      </c>
+      <c r="AF24" s="3" t="n">
+        <v>1.107741377616066e-09</v>
+      </c>
+      <c r="AG24" s="3" t="n">
+        <v>-1.09974545018291e-09</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0.005330631755110784</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>-0.0003542114258598843</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1.984971208221154e-05</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>-0.0006764884771388534</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0.001042457699524352</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0.0002595359121010096</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>-1.824011921457369e-11</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>-6.234144340895799e-12</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0.003126477381297336</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>0.02176644722630514</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0.002372886935540009</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0.0403196221078612</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>-0.02441188057930155</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>-0.00213001228736197</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>0.007398799096744867</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>0.01241262849393748</v>
+      </c>
+      <c r="R25" s="3" t="n">
+        <v>-0.6942841322105309</v>
+      </c>
+      <c r="S25" s="3" t="n">
+        <v>1.324195788551885</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>-0.6673660694658885</v>
+      </c>
+      <c r="U25" s="3" t="n">
+        <v>4.774509981186088</v>
+      </c>
+      <c r="V25" s="3" t="n">
+        <v>-3.283422482054118</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <v>-5.018620481549414</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>2.285829861687337</v>
+      </c>
+      <c r="Y25" s="3" t="n">
+        <v>2.279157533854642</v>
+      </c>
+      <c r="Z25" s="3" t="n">
+        <v>-0.009480508164250223</v>
+      </c>
+      <c r="AA25" s="3" t="n">
+        <v>8.654517217229714e-05</v>
+      </c>
+      <c r="AB25" s="3" t="n">
+        <v>1.331601679321206e-05</v>
+      </c>
+      <c r="AC25" s="3" t="n">
+        <v>-0.001110176447670877</v>
+      </c>
+      <c r="AD25" s="3" t="n">
+        <v>0.001669161451547432</v>
+      </c>
+      <c r="AE25" s="3" t="n">
+        <v>0.0004460720381872297</v>
+      </c>
+      <c r="AF25" s="3" t="n">
+        <v>-5.223201074785621e-11</v>
+      </c>
+      <c r="AG25" s="3" t="n">
+        <v>1.200016538785531e-11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>TJX</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>-0.0595384299764438</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>-0.005087504629384077</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>-0.0005535509740943696</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>-0.002233474747013697</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>-0.001541790295095815</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>-0.0004577869762586003</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>-2.695814955951465e-12</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>-1.269446209012713e-11</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>0.01409670018919469</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>0.2788847935765775</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0.01843044802751944</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>0.1272172931244436</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>0.04218018024754024</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>0.01440984192010796</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>0.008621936094340003</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>0.0120461092152571</v>
+      </c>
+      <c r="R26" s="3" t="n">
+        <v>0.109961025866936</v>
+      </c>
+      <c r="S26" s="3" t="n">
+        <v>0.2211527739380007</v>
+      </c>
+      <c r="T26" s="3" t="n">
+        <v>0.2449274507987242</v>
+      </c>
+      <c r="U26" s="3" t="n">
+        <v>0.2121192887161282</v>
+      </c>
+      <c r="V26" s="3" t="n">
+        <v>0.05392869619318314</v>
+      </c>
+      <c r="W26" s="3" t="n">
+        <v>0.1169825435484962</v>
+      </c>
+      <c r="X26" s="3" t="n">
+        <v>0.006258574425499252</v>
+      </c>
+      <c r="Y26" s="3" t="n">
+        <v>0.0346696465130323</v>
+      </c>
+      <c r="Z26" s="3" t="n">
+        <v>-0.03587267449233804</v>
+      </c>
+      <c r="AA26" s="3" t="n">
+        <v>0.0009689437150861883</v>
+      </c>
+      <c r="AB26" s="3" t="n">
+        <v>-0.0006755497842413543</v>
+      </c>
+      <c r="AC26" s="3" t="n">
+        <v>-0.0002495849269289277</v>
+      </c>
+      <c r="AD26" s="3" t="n">
+        <v>-0.001158203887870119</v>
+      </c>
+      <c r="AE26" s="3" t="n">
+        <v>0.0003825293530428371</v>
+      </c>
+      <c r="AF26" s="3" t="n">
+        <v>2.073874109370379e-10</v>
+      </c>
+      <c r="AG26" s="3" t="n">
+        <v>-1.757657506142383e-10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>RIO</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0.04989098280922526</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>-0.001115274240828776</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0.0003222003987733317</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>-0.002489015885672488</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>-0.005826959139461112</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>8.146865146968371e-05</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>-8.545866912056775e-11</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>-1.086411516039908e-09</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>-0.00742555551905131</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>0.05795571644174585</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>-0.004094403490963422</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>0.1335477011464611</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>0.1148001670942578</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>-0.0009354869523487056</v>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>0.02439782864846182</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>0.03461744910436729</v>
+      </c>
+      <c r="R27" s="3" t="n">
+        <v>-0.3763325635209446</v>
+      </c>
+      <c r="S27" s="3" t="n">
+        <v>0.1136273186234088</v>
+      </c>
+      <c r="T27" s="3" t="n">
+        <v>-0.3178966193165092</v>
+      </c>
+      <c r="U27" s="3" t="n">
+        <v>0.5464392911692939</v>
+      </c>
+      <c r="V27" s="3" t="n">
+        <v>0.3968353851198244</v>
+      </c>
+      <c r="W27" s="3" t="n">
+        <v>-0.04813784510243338</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <v>0.173371990219676</v>
+      </c>
+      <c r="Y27" s="3" t="n">
+        <v>0.512093042807684</v>
+      </c>
+      <c r="Z27" s="3" t="n">
+        <v>0.06402194177769635</v>
+      </c>
+      <c r="AA27" s="3" t="n">
+        <v>0.006619168521035936</v>
+      </c>
+      <c r="AB27" s="3" t="n">
+        <v>0.001070344467327534</v>
+      </c>
+      <c r="AC27" s="3" t="n">
+        <v>-0.005621876052949209</v>
+      </c>
+      <c r="AD27" s="3" t="n">
+        <v>-0.002402929300106888</v>
+      </c>
+      <c r="AE27" s="3" t="n">
+        <v>-0.001280652483256353</v>
+      </c>
+      <c r="AF27" s="3" t="n">
+        <v>7.575038749382966e-11</v>
+      </c>
+      <c r="AG27" s="3" t="n">
+        <v>-1.335521406422247e-09</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>-0.0494371759096661</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>-0.005599305464223462</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>-0.0006145214565982289</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>-0.003656684765990386</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>-0.004798523464187979</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>-0.001027816351747884</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>1.748000313213891e-10</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>-2.36010237540217e-10</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>0.03597772301648187</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>0.3207282412660359</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>0.03512201705229972</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>0.2203721718059471</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>0.1401691060731811</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>0.03781462414408189</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>0.01121304805354148</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>0.0431845624976667</v>
+      </c>
+      <c r="R28" s="3" t="n">
+        <v>0.2211363859249171</v>
+      </c>
+      <c r="S28" s="3" t="n">
+        <v>0.15183892650116</v>
+      </c>
+      <c r="T28" s="3" t="n">
+        <v>0.1570504494694568</v>
+      </c>
+      <c r="U28" s="3" t="n">
+        <v>0.196745559393368</v>
+      </c>
+      <c r="V28" s="3" t="n">
+        <v>0.1053994616554108</v>
+      </c>
+      <c r="W28" s="3" t="n">
+        <v>0.1495225827442668</v>
+      </c>
+      <c r="X28" s="3" t="n">
+        <v>-0.0429998699482774</v>
+      </c>
+      <c r="Y28" s="3" t="n">
+        <v>0.06130650425969797</v>
+      </c>
+      <c r="Z28" s="3" t="n">
+        <v>-0.05675658538896437</v>
+      </c>
+      <c r="AA28" s="3" t="n">
+        <v>0.006934513906442594</v>
+      </c>
+      <c r="AB28" s="3" t="n">
+        <v>-0.0002617852832228941</v>
+      </c>
+      <c r="AC28" s="3" t="n">
+        <v>-0.003681427677884637</v>
+      </c>
+      <c r="AD28" s="3" t="n">
+        <v>-0.005312692452883144</v>
+      </c>
+      <c r="AE28" s="3" t="n">
+        <v>-0.0002764661719721668</v>
+      </c>
+      <c r="AF28" s="3" t="n">
+        <v>2.302823729596859e-09</v>
+      </c>
+      <c r="AG28" s="3" t="n">
+        <v>-2.140103169520416e-09</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>CNI</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>-0.06244717925370851</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>-0.004340727703916513</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>-0.00020619637866885</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>-0.0004559081116080028</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>-0.00364891357456456</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>-0.000380037454337305</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>-8.363761955491374e-13</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>-6.345823625479753e-11</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>0.02374163977682788</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>0.2484223376681263</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>0.01870742328812986</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>0.03915622842795705</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>0.09688096384751195</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>0.02000597242479515</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>0.0148859285059352</v>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>0.0265638253142545</v>
+      </c>
+      <c r="R29" s="3" t="n">
+        <v>0.2160711639110258</v>
+      </c>
+      <c r="S29" s="3" t="n">
+        <v>0.2575841261063384</v>
+      </c>
+      <c r="T29" s="3" t="n">
+        <v>0.1210238869766682</v>
+      </c>
+      <c r="U29" s="3" t="n">
+        <v>0.05715136325797086</v>
+      </c>
+      <c r="V29" s="3" t="n">
+        <v>0.178787317577692</v>
+      </c>
+      <c r="W29" s="3" t="n">
+        <v>0.133218520967406</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <v>0.0004367897579516155</v>
+      </c>
+      <c r="Y29" s="3" t="n">
+        <v>0.03572683144494715</v>
+      </c>
+      <c r="Z29" s="3" t="n">
+        <v>-0.06041810085781499</v>
+      </c>
+      <c r="AA29" s="3" t="n">
+        <v>0.0003194571296807943</v>
+      </c>
+      <c r="AB29" s="3" t="n">
+        <v>-0.0003314830109016807</v>
+      </c>
+      <c r="AC29" s="3" t="n">
+        <v>0.001353779507877924</v>
+      </c>
+      <c r="AD29" s="3" t="n">
+        <v>-0.001946383157416746</v>
+      </c>
+      <c r="AE29" s="3" t="n">
+        <v>9.8163508551736e-05</v>
+      </c>
+      <c r="AF29" s="3" t="n">
+        <v>5.279182811623983e-10</v>
+      </c>
+      <c r="AG29" s="3" t="n">
+        <v>-4.438840013551698e-10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>ZTS</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>-0.06244118240685896</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>-0.006488770823096927</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>-0.0006266973682704414</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>-0.002329755802198176</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>-7.925943964244824e-05</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>-0.0009300184697749875</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>4.074237156634672e-10</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>3.454276026832343e-10</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>0.09582872330591942</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>0.4253637901505515</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>0.08152492081249076</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>0.1952510124873285</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>0.06849022749868819</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>0.08198512459554533</v>
+      </c>
+      <c r="P30" s="3" t="n">
+        <v>0.01781219815874976</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>0.01930993936529299</v>
+      </c>
+      <c r="R30" s="3" t="n">
+        <v>0.3070035208851151</v>
+      </c>
+      <c r="S30" s="3" t="n">
+        <v>0.276498649633655</v>
+      </c>
+      <c r="T30" s="3" t="n">
+        <v>0.2658935671612283</v>
+      </c>
+      <c r="U30" s="3" t="n">
+        <v>0.2104750097760286</v>
+      </c>
+      <c r="V30" s="3" t="n">
+        <v>0.00330874155812824</v>
+      </c>
+      <c r="W30" s="3" t="n">
+        <v>0.2249598913950405</v>
+      </c>
+      <c r="X30" s="3" t="n">
+        <v>-0.1599768456069561</v>
+      </c>
+      <c r="Y30" s="3" t="n">
+        <v>-0.1281625348022395</v>
+      </c>
+      <c r="Z30" s="3" t="n">
+        <v>-0.07315726523378646</v>
+      </c>
+      <c r="AA30" s="3" t="n">
+        <v>-0.001056694542886126</v>
+      </c>
+      <c r="AB30" s="3" t="n">
+        <v>-0.0003981988709406222</v>
+      </c>
+      <c r="AC30" s="3" t="n">
+        <v>-1.455164845950709e-05</v>
+      </c>
+      <c r="AD30" s="3" t="n">
+        <v>0.003191035426622118</v>
+      </c>
+      <c r="AE30" s="3" t="n">
+        <v>7.732675188061908e-05</v>
+      </c>
+      <c r="AF30" s="3" t="n">
+        <v>7.481151869664607e-10</v>
+      </c>
+      <c r="AG30" s="3" t="n">
+        <v>1.508267411384841e-11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>BEKE</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>-0.01418924179502728</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>-0.03016807976741885</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>-0.006134892902815755</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>-0.0346640323346263</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.008727268127052915</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>-0.009605245993758721</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>-2.084392323983209e-08</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>-6.726430603339507e-08</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>0.06670726117787271</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>1.920061107581265</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0.4108869118558004</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>1.961810329769201</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>-0.2196918862794842</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>0.6407529453871279</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>1.322699390037394</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>5.93153621806326</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>0.01306760862926782</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <v>0.08967809210193964</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>0.2196151580092324</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <v>0.2608527045528736</v>
+      </c>
+      <c r="V31" s="3" t="n">
+        <v>-0.05409922656538277</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>0.1451019827576292</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <v>0.06945876994759917</v>
+      </c>
+      <c r="Y31" s="3" t="n">
+        <v>0.256324910566841</v>
+      </c>
+      <c r="Z31" s="3" t="n">
+        <v>0.4648078318656421</v>
+      </c>
+      <c r="AA31" s="3" t="n">
+        <v>0.05519284673790903</v>
+      </c>
+      <c r="AB31" s="3" t="n">
+        <v>-0.008696723555289989</v>
+      </c>
+      <c r="AC31" s="3" t="n">
+        <v>-0.01948591228100886</v>
+      </c>
+      <c r="AD31" s="3" t="n">
+        <v>-0.02218225328394897</v>
+      </c>
+      <c r="AE31" s="3" t="n">
+        <v>-0.007449551304582658</v>
+      </c>
+      <c r="AF31" s="3" t="n">
+        <v>-4.197473836887992e-08</v>
+      </c>
+      <c r="AG31" s="3" t="n">
+        <v>6.645924095424294e-09</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>SNAP</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0.03660709652566355</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>0.002262874004820061</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.0001700856890997309</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0.001246757448980912</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>2.566795764237908e-05</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0.0004971157248605797</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>1.969857969167849e-10</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>7.503084410158602e-11</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>0.02384655811328609</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>-0.08770518200758511</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>0.02790680462315362</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>-0.03356710085594591</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>0.03042720793493112</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>0.02575805552411989</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>0.04486692520335788</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>0.0187457451897382</v>
+      </c>
+      <c r="R32" s="3" t="n">
+        <v>0.1474169413400367</v>
+      </c>
+      <c r="S32" s="3" t="n">
+        <v>0.1397055915721874</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>0.08273315516703825</v>
+      </c>
+      <c r="U32" s="3" t="n">
+        <v>0.1270219964909533</v>
+      </c>
+      <c r="V32" s="3" t="n">
+        <v>0.001322180614967577</v>
+      </c>
+      <c r="W32" s="3" t="n">
+        <v>0.1429506063417605</v>
+      </c>
+      <c r="X32" s="3" t="n">
+        <v>0.2439914160028241</v>
+      </c>
+      <c r="Y32" s="3" t="n">
+        <v>0.1148581124702321</v>
+      </c>
+      <c r="Z32" s="3" t="n">
+        <v>-0.03364880380727136</v>
+      </c>
+      <c r="AA32" s="3" t="n">
+        <v>0.000531162559316664</v>
+      </c>
+      <c r="AB32" s="3" t="n">
+        <v>-0.0003499801107516838</v>
+      </c>
+      <c r="AC32" s="3" t="n">
+        <v>0.001372221958913722</v>
+      </c>
+      <c r="AD32" s="3" t="n">
+        <v>0.0002830833056835861</v>
+      </c>
+      <c r="AE32" s="3" t="n">
+        <v>0.000448542724427573</v>
+      </c>
+      <c r="AF32" s="3" t="n">
+        <v>4.972869997928406e-10</v>
+      </c>
+      <c r="AG32" s="3" t="n">
+        <v>-2.3967868882264e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>-0.02683592485860396</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>-0.000931113809199865</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>-7.405133309431278e-06</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>-4.923315542375424e-05</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>-0.001340954242828713</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>5.468710086242949e-05</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>-1.326226820371931e-11</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>-3.173847548346956e-11</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>-0.007761160095885763</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>0.04051650559251191</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>-0.007374130859132848</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>-0.004748719011855083</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>0.01979964540890344</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>-0.007544891373721415</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>-0.0002067868751789651</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <v>0.006033374749585279</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>0.2843546483147295</v>
+      </c>
+      <c r="S33" s="3" t="n">
+        <v>0.2289705430675635</v>
+      </c>
+      <c r="T33" s="3" t="n">
+        <v>0.01721637554700969</v>
+      </c>
+      <c r="U33" s="3" t="n">
+        <v>0.02498895586081491</v>
+      </c>
+      <c r="V33" s="3" t="n">
+        <v>0.2272615385154307</v>
+      </c>
+      <c r="W33" s="3" t="n">
+        <v>-0.07656402558232318</v>
+      </c>
+      <c r="X33" s="3" t="n">
+        <v>0.1049523838171356</v>
+      </c>
+      <c r="Y33" s="3" t="n">
+        <v>0.1888195804596393</v>
+      </c>
+      <c r="Z33" s="3" t="n">
+        <v>-0.06101609982251752</v>
+      </c>
+      <c r="AA33" s="3" t="n">
+        <v>0.0003076334438467022</v>
+      </c>
+      <c r="AB33" s="3" t="n">
+        <v>-9.94039316832089e-05</v>
+      </c>
+      <c r="AC33" s="3" t="n">
+        <v>0.0002696953554998597</v>
+      </c>
+      <c r="AD33" s="3" t="n">
+        <v>-0.00175599814247538</v>
+      </c>
+      <c r="AE33" s="3" t="n">
+        <v>0.0003562379548344132</v>
+      </c>
+      <c r="AF33" s="3" t="n">
+        <v>4.998636219324453e-11</v>
+      </c>
+      <c r="AG33" s="3" t="n">
+        <v>-7.193773050783571e-11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>-0.05622224147075529</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>-0.002983368269584439</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>-0.00023491395716991</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>-0.001331584783213578</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0.0002155738773099425</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>-0.0002308793064041238</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>7.000234781536653e-11</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>7.750230284714146e-11</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>0.02190728161680648</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>0.1767139038071313</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>0.02038491734431136</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>0.08968619428784316</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>0.01013308009022491</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>0.01883707021286999</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>-0.0009554357789878299</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <v>0.001209742033438411</v>
+      </c>
+      <c r="R34" s="3" t="n">
+        <v>0.3320133054035681</v>
+      </c>
+      <c r="S34" s="3" t="n">
+        <v>0.283996470955953</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>0.2197812774752848</v>
+      </c>
+      <c r="U34" s="3" t="n">
+        <v>0.280950727768619</v>
+      </c>
+      <c r="V34" s="3" t="n">
+        <v>-0.01551904813835532</v>
+      </c>
+      <c r="W34" s="3" t="n">
+        <v>0.1272462136414591</v>
+      </c>
+      <c r="X34" s="3" t="n">
+        <v>-0.117763623857218</v>
+      </c>
+      <c r="Y34" s="3" t="n">
+        <v>-0.1107053232493107</v>
+      </c>
+      <c r="Z34" s="3" t="n">
+        <v>-0.06921504904335526</v>
+      </c>
+      <c r="AA34" s="3" t="n">
+        <v>0.0004004098044130825</v>
+      </c>
+      <c r="AB34" s="3" t="n">
+        <v>-0.0001045545670375624</v>
+      </c>
+      <c r="AC34" s="3" t="n">
+        <v>-0.0009373417148672066</v>
+      </c>
+      <c r="AD34" s="3" t="n">
+        <v>0.001035761386482556</v>
+      </c>
+      <c r="AE34" s="3" t="n">
+        <v>0.0003679033735409689</v>
+      </c>
+      <c r="AF34" s="3" t="n">
+        <v>-3.493740810249718e-12</v>
+      </c>
+      <c r="AG34" s="3" t="n">
+        <v>1.527702447758195e-10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>-0.1267452794791809</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>-0.007883655677119652</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>-0.0007770007274587366</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>-0.003113814367776581</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>-0.0001645814283722968</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>-0.0009560290852904585</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>-2.041146770993383e-11</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>-4.484769792080413e-10</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>0.01555734759973544</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>0.4174955099696008</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>0.01814483168335661</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>0.1728710723636921</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>0.008334184314752068</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>0.01908560625605984</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>0.01230318501816688</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>-0.06166706067696135</v>
+      </c>
+      <c r="R35" s="3" t="n">
+        <v>0.1482966952363675</v>
+      </c>
+      <c r="S35" s="3" t="n">
+        <v>0.2089253428274229</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>0.2139540788745925</v>
+      </c>
+      <c r="U35" s="3" t="n">
+        <v>0.1767305959362532</v>
+      </c>
+      <c r="V35" s="3" t="n">
+        <v>0.003394329476411236</v>
+      </c>
+      <c r="W35" s="3" t="n">
+        <v>0.1470554451650436</v>
+      </c>
+      <c r="X35" s="3" t="n">
+        <v>0.01350751953594329</v>
+      </c>
+      <c r="Y35" s="3" t="n">
+        <v>0.08813599294796572</v>
+      </c>
+      <c r="Z35" s="3" t="n">
+        <v>-0.05100433445531252</v>
+      </c>
+      <c r="AA35" s="3" t="n">
+        <v>-0.0007351498966870124</v>
+      </c>
+      <c r="AB35" s="3" t="n">
+        <v>-0.0006081259410816291</v>
+      </c>
+      <c r="AC35" s="3" t="n">
+        <v>-0.0006009408399361204</v>
+      </c>
+      <c r="AD35" s="3" t="n">
+        <v>-0.0001074033023745461</v>
+      </c>
+      <c r="AE35" s="3" t="n">
+        <v>0.0001746032835966295</v>
+      </c>
+      <c r="AF35" s="3" t="n">
+        <v>5.761252877967304e-11</v>
+      </c>
+      <c r="AG35" s="3" t="n">
+        <v>-4.503298619868793e-10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>-0.02633581860528466</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>-0.002198809365537298</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>-0.0001382025610373457</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>-0.001622427743747963</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>-0.001033202728137626</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0.0002244507729716459</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>-7.533906573929607e-10</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>-1.212807823809236e-08</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>0.006765310893188685</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>0.1181383546088005</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>0.005638796402031806</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>0.0899047542980326</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>0.02711467015127256</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>0.004081502943310493</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>0.05112848422954071</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>0.291028530008403</v>
+      </c>
+      <c r="R36" s="3" t="n">
+        <v>0.114688363970431</v>
+      </c>
+      <c r="S36" s="3" t="n">
+        <v>0.1300363847813764</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>0.07804217262119796</v>
+      </c>
+      <c r="U36" s="3" t="n">
+        <v>0.2053504836331776</v>
+      </c>
+      <c r="V36" s="3" t="n">
+        <v>0.04633025842957779</v>
+      </c>
+      <c r="W36" s="3" t="n">
+        <v>-0.07585937054740866</v>
+      </c>
+      <c r="X36" s="3" t="n">
+        <v>0.153649020369236</v>
+      </c>
+      <c r="Y36" s="3" t="n">
+        <v>0.3477626867424121</v>
+      </c>
+      <c r="Z36" s="3" t="n">
+        <v>-0.08330300225380317</v>
+      </c>
+      <c r="AA36" s="3" t="n">
+        <v>0.006446499560083701</v>
+      </c>
+      <c r="AB36" s="3" t="n">
+        <v>-0.0005103400110105378</v>
+      </c>
+      <c r="AC36" s="3" t="n">
+        <v>-0.00182312052118344</v>
+      </c>
+      <c r="AD36" s="3" t="n">
+        <v>-0.0008294397258129757</v>
+      </c>
+      <c r="AE36" s="3" t="n">
+        <v>0.000984031566572409</v>
+      </c>
+      <c r="AF36" s="3" t="n">
+        <v>5.489742892749273e-11</v>
+      </c>
+      <c r="AG36" s="3" t="n">
+        <v>-9.175555026815693e-09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0.01402861418336286</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>6.938747175429e-05</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>1.399131748550986e-05</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>-0.0008048294529113943</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.006591893675034176</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>-0.0003421199113348091</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>6.876913474495583e-11</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1.079595891703834e-11</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>0.0370286822333554</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>0.03762305836807337</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>0.04082762404808138</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>0.08330288684114012</v>
+      </c>
+      <c r="N37" s="3" t="n">
+        <v>-0.1105669252502585</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>0.04459993843381255</v>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>0.03124995260640654</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>0.04156836227069566</v>
+      </c>
+      <c r="R37" s="3" t="n">
+        <v>0.5673796261311715</v>
+      </c>
+      <c r="S37" s="3" t="n">
+        <v>0.01265558407677364</v>
+      </c>
+      <c r="T37" s="3" t="n">
+        <v>0.02469439082595385</v>
+      </c>
+      <c r="U37" s="3" t="n">
+        <v>-0.3033589395108593</v>
+      </c>
+      <c r="V37" s="3" t="n">
+        <v>0.9682973643049951</v>
+      </c>
+      <c r="W37" s="3" t="n">
+        <v>-0.3522270947966471</v>
+      </c>
+      <c r="X37" s="3" t="n">
+        <v>0.0723017409612263</v>
+      </c>
+      <c r="Y37" s="3" t="n">
+        <v>0.01025732800738615</v>
+      </c>
+      <c r="Z37" s="3" t="n">
+        <v>0.02653052417908316</v>
+      </c>
+      <c r="AA37" s="3" t="n">
+        <v>-0.001026724480957038</v>
+      </c>
+      <c r="AB37" s="3" t="n">
+        <v>0.0006131645916217106</v>
+      </c>
+      <c r="AC37" s="3" t="n">
+        <v>-0.001518351209745811</v>
+      </c>
+      <c r="AD37" s="3" t="n">
+        <v>0.007046668165873955</v>
+      </c>
+      <c r="AE37" s="3" t="n">
+        <v>-0.001277648748177687</v>
+      </c>
+      <c r="AF37" s="3" t="n">
+        <v>-4.83783914952415e-11</v>
+      </c>
+      <c r="AG37" s="3" t="n">
+        <v>-2.68190936824016e-10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>-0.05926809143492956</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>-0.007669054981636928</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>-0.0005968603326772048</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>-0.002943503659990592</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>-0.002197097461531591</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>-0.0005051353224094616</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>1.46610947474616e-10</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1.322011713368041e-10</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>0.0591995188345628</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>0.4510319535328129</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>0.05105157496053024</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>0.2021901527509411</v>
+      </c>
+      <c r="N38" s="3" t="n">
+        <v>0.09129945626892057</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>0.04726429049993085</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>0.01170125787529083</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>0.02233399946927258</v>
+      </c>
+      <c r="R38" s="3" t="n">
+        <v>0.2883879797029181</v>
+      </c>
+      <c r="S38" s="3" t="n">
+        <v>0.2469999671147181</v>
+      </c>
+      <c r="T38" s="3" t="n">
+        <v>0.1941778999265752</v>
+      </c>
+      <c r="U38" s="3" t="n">
+        <v>0.2039905222628189</v>
+      </c>
+      <c r="V38" s="3" t="n">
+        <v>0.05790918633473679</v>
+      </c>
+      <c r="W38" s="3" t="n">
+        <v>0.09501882598976087</v>
+      </c>
+      <c r="X38" s="3" t="n">
+        <v>-0.04645675984482007</v>
+      </c>
+      <c r="Y38" s="3" t="n">
+        <v>-0.0400276214867079</v>
+      </c>
+      <c r="Z38" s="3" t="n">
+        <v>-0.06823629096372519</v>
+      </c>
+      <c r="AA38" s="3" t="n">
+        <v>0.001625730327412648</v>
+      </c>
+      <c r="AB38" s="3" t="n">
+        <v>-0.0005583257197229922</v>
+      </c>
+      <c r="AC38" s="3" t="n">
+        <v>-0.001341070403757511</v>
+      </c>
+      <c r="AD38" s="3" t="n">
+        <v>-0.00177125460256041</v>
+      </c>
+      <c r="AE38" s="3" t="n">
+        <v>0.001087063509089002</v>
+      </c>
+      <c r="AF38" s="3" t="n">
+        <v>7.340754118601851e-10</v>
+      </c>
+      <c r="AG38" s="3" t="n">
+        <v>-4.613993731746342e-10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>PBR</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>-0.0594451955735606</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>-0.0007187437935909644</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>8.797458856315241e-05</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>-0.0005241310567837843</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>-0.00281459940527646</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>-6.990326494535824e-05</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>-9.51000109313619e-11</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>-2.741708312708648e-11</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>-0.003282691609286768</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>0.03285003792854318</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>-0.004774190883093595</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>0.02367385982454835</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>0.0630447550841234</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>-0.003634946447398871</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>0.07274151955075246</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>0.03068285717348531</v>
+      </c>
+      <c r="R39" s="3" t="n">
+        <v>0.2922611487331639</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>0.06435088558957745</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>-0.06897322005046266</v>
+      </c>
+      <c r="U39" s="3" t="n">
+        <v>0.09358781137406867</v>
+      </c>
+      <c r="V39" s="3" t="n">
+        <v>0.1958431702217641</v>
+      </c>
+      <c r="W39" s="3" t="n">
+        <v>0.03349348415151891</v>
+      </c>
+      <c r="X39" s="3" t="n">
+        <v>0.2495391019920999</v>
+      </c>
+      <c r="Y39" s="3" t="n">
+        <v>0.1398976179882697</v>
+      </c>
+      <c r="Z39" s="3" t="n">
+        <v>-0.1115158802077606</v>
+      </c>
+      <c r="AA39" s="3" t="n">
+        <v>0.004415907144207524</v>
+      </c>
+      <c r="AB39" s="3" t="n">
+        <v>0.0002873864497518061</v>
+      </c>
+      <c r="AC39" s="3" t="n">
+        <v>-0.001848391145790257</v>
+      </c>
+      <c r="AD39" s="3" t="n">
+        <v>-0.003204608787885322</v>
+      </c>
+      <c r="AE39" s="3" t="n">
+        <v>-6.625133491232659e-05</v>
+      </c>
+      <c r="AF39" s="3" t="n">
+        <v>-7.41529286810774e-11</v>
+      </c>
+      <c r="AG39" s="3" t="n">
+        <v>-1.368399654344955e-12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>-0.0142925813260688</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>-0.00160103302341492</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>-0.0001576195557213119</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>-0.0007484980807633864</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>-0.001628893133530603</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>-7.966532288474542e-05</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>6.282814349063632e-12</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>-3.638532623241093e-12</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>0.004958294191015347</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>0.08598749555168662</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>0.004036510192336586</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>0.04207248021607652</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>0.03904964131327033</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>0.002855487770476904</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>-0.004848540330758229</v>
+      </c>
+      <c r="Q40" s="3" t="n">
+        <v>0.004086001852886716</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>0.100880522167585</v>
+      </c>
+      <c r="S40" s="3" t="n">
+        <v>0.2291265211240342</v>
+      </c>
+      <c r="T40" s="3" t="n">
+        <v>0.2307042529837987</v>
+      </c>
+      <c r="U40" s="3" t="n">
+        <v>0.2307725233395814</v>
+      </c>
+      <c r="V40" s="3" t="n">
+        <v>0.183442317150661</v>
+      </c>
+      <c r="W40" s="3" t="n">
+        <v>0.06777294435573732</v>
+      </c>
+      <c r="X40" s="3" t="n">
+        <v>-0.06388259816879634</v>
+      </c>
+      <c r="Y40" s="3" t="n">
+        <v>0.02118351704739881</v>
+      </c>
+      <c r="Z40" s="3" t="n">
+        <v>-0.02768750205408457</v>
+      </c>
+      <c r="AA40" s="3" t="n">
+        <v>0.001299182983857127</v>
+      </c>
+      <c r="AB40" s="3" t="n">
+        <v>-0.0002205353328402712</v>
+      </c>
+      <c r="AC40" s="3" t="n">
+        <v>-0.0003564538151289241</v>
+      </c>
+      <c r="AD40" s="3" t="n">
+        <v>-0.001853382142705341</v>
+      </c>
+      <c r="AE40" s="3" t="n">
+        <v>0.0001550952204452919</v>
+      </c>
+      <c r="AF40" s="3" t="n">
+        <v>4.687329465795117e-11</v>
+      </c>
+      <c r="AG40" s="3" t="n">
+        <v>-8.448553007266962e-11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>-0.02772599000286401</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>-0.008214826887618156</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>-0.0005639806548456312</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>-0.001550841018831318</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>-0.002246592486597544</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>-0.0005343509884853962</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>2.869905161345114e-11</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>3.671766143527553e-11</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>0.02344681949212251</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>0.4536952025566229</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>0.02660717365208463</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>0.101269936273455</v>
+      </c>
+      <c r="N41" s="3" t="n">
+        <v>0.0671029338171143</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>0.0238482079099669</v>
+      </c>
+      <c r="P41" s="3" t="n">
+        <v>0.01259256999994191</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>0.01453438313884251</v>
+      </c>
+      <c r="R41" s="3" t="n">
+        <v>0.1272343493137447</v>
+      </c>
+      <c r="S41" s="3" t="n">
+        <v>0.3235514393911721</v>
+      </c>
+      <c r="T41" s="3" t="n">
+        <v>0.2366456592768465</v>
+      </c>
+      <c r="U41" s="3" t="n">
+        <v>0.140510677015267</v>
+      </c>
+      <c r="V41" s="3" t="n">
+        <v>0.06852311815324706</v>
+      </c>
+      <c r="W41" s="3" t="n">
+        <v>0.1313794842770301</v>
+      </c>
+      <c r="X41" s="3" t="n">
+        <v>-0.01101792693057637</v>
+      </c>
+      <c r="Y41" s="3" t="n">
+        <v>-0.01682680049673106</v>
+      </c>
+      <c r="Z41" s="3" t="n">
+        <v>-0.01229546458745157</v>
+      </c>
+      <c r="AA41" s="3" t="n">
+        <v>-0.002968901441613883</v>
+      </c>
+      <c r="AB41" s="3" t="n">
+        <v>-0.000792745156200994</v>
+      </c>
+      <c r="AC41" s="3" t="n">
+        <v>0.001985353610465339</v>
+      </c>
+      <c r="AD41" s="3" t="n">
+        <v>-0.0003224977420282386</v>
+      </c>
+      <c r="AE41" s="3" t="n">
+        <v>0.000443964743118859</v>
+      </c>
+      <c r="AF41" s="3" t="n">
+        <v>6.086181072341983e-10</v>
+      </c>
+      <c r="AG41" s="3" t="n">
+        <v>-3.737019896537294e-10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>-2.10190706971881</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>-0.005498432093340522</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>-0.0004392510339867701</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>-0.006191392094258287</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0.003486235074420578</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>-0.0007203692641161179</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>1.086066434026657e-11</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>-6.474865822730202e-12</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>-0.009047097644253564</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>0.2464805707482955</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>-0.03395293520213798</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>0.2937913065861877</v>
+      </c>
+      <c r="N42" s="3" t="n">
+        <v>-0.125871177506606</v>
+      </c>
+      <c r="O42" s="3" t="n">
+        <v>-0.03394160380406332</v>
+      </c>
+      <c r="P42" s="3" t="n">
+        <v>-0.03189812577757729</v>
+      </c>
+      <c r="Q42" s="3" t="n">
+        <v>-0.02059533040636861</v>
+      </c>
+      <c r="R42" s="3" t="n">
+        <v>0.529313137856386</v>
+      </c>
+      <c r="S42" s="3" t="n">
+        <v>0.112285014659754</v>
+      </c>
+      <c r="T42" s="3" t="n">
+        <v>0.08477997504387302</v>
+      </c>
+      <c r="U42" s="3" t="n">
+        <v>0.2531486335970053</v>
+      </c>
+      <c r="V42" s="3" t="n">
+        <v>-0.05390038394766424</v>
+      </c>
+      <c r="W42" s="3" t="n">
+        <v>0.07993757038836277</v>
+      </c>
+      <c r="X42" s="3" t="n">
+        <v>-0.01166982805089192</v>
+      </c>
+      <c r="Y42" s="3" t="n">
+        <v>0.00610588045317493</v>
+      </c>
+      <c r="Z42" s="3" t="n">
+        <v>-3.119396778621688</v>
+      </c>
+      <c r="AA42" s="3" t="n">
+        <v>0.009068752781489409</v>
+      </c>
+      <c r="AB42" s="3" t="n">
+        <v>0.001150032030909405</v>
+      </c>
+      <c r="AC42" s="3" t="n">
+        <v>-0.01196966726784738</v>
+      </c>
+      <c r="AD42" s="3" t="n">
+        <v>0.003512539936434437</v>
+      </c>
+      <c r="AE42" s="3" t="n">
+        <v>0.002443766468006668</v>
+      </c>
+      <c r="AF42" s="3" t="n">
+        <v>-6.106321013235571e-11</v>
+      </c>
+      <c r="AG42" s="3" t="n">
+        <v>1.765523042931333e-10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>-0.03738428688030997</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>0.0001724430987319528</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>3.16916358367703e-05</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>-0.0006109656066917659</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0.001858256612384475</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>0.0001262904933879682</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>4.233824727182434e-11</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>2.487564510896853e-11</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>0.01139996321751238</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>-0.001850559019235827</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>0.006595117417259802</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>0.03980279873799973</v>
+      </c>
+      <c r="N43" s="3" t="n">
+        <v>-0.03551480571273929</v>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>0.005429963633494604</v>
+      </c>
+      <c r="P43" s="3" t="n">
+        <v>-0.003745617111459746</v>
+      </c>
+      <c r="Q43" s="3" t="n">
+        <v>0.002720020604134489</v>
+      </c>
+      <c r="R43" s="3" t="n">
+        <v>-2.726490528693998</v>
+      </c>
+      <c r="S43" s="3" t="n">
+        <v>0.2274028169603544</v>
+      </c>
+      <c r="T43" s="3" t="n">
+        <v>0.4051493180790749</v>
+      </c>
+      <c r="U43" s="3" t="n">
+        <v>-1.663133588523609</v>
+      </c>
+      <c r="V43" s="3" t="n">
+        <v>2.206303562776875</v>
+      </c>
+      <c r="W43" s="3" t="n">
+        <v>0.9615582797408758</v>
+      </c>
+      <c r="X43" s="3" t="n">
+        <v>1.105649663691233</v>
+      </c>
+      <c r="Y43" s="3" t="n">
+        <v>0.4835604759691931</v>
+      </c>
+      <c r="Z43" s="3" t="n">
+        <v>-0.07333641201415404</v>
+      </c>
+      <c r="AA43" s="3" t="n">
+        <v>0.001419407452973993</v>
+      </c>
+      <c r="AB43" s="3" t="n">
+        <v>0.0001949169695206818</v>
+      </c>
+      <c r="AC43" s="3" t="n">
+        <v>-0.001939138386884591</v>
+      </c>
+      <c r="AD43" s="3" t="n">
+        <v>0.0008623453722142512</v>
+      </c>
+      <c r="AE43" s="3" t="n">
+        <v>0.0004709898580404983</v>
+      </c>
+      <c r="AF43" s="3" t="n">
+        <v>1.770621364228365e-10</v>
+      </c>
+      <c r="AG43" s="3" t="n">
+        <v>-1.844860151555548e-10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>CCI</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>-0.123255923623621</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>-0.004648838925528124</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>-0.0003098797369242057</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>-0.001303427451000469</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>-0.0006366571875334209</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>-0.0005715502443628014</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>1.154364553683507e-10</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1.115633958893707e-10</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>0.0478565394217219</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>0.2719190212303363</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>0.02995726305648239</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>0.09509784447209639</v>
+      </c>
+      <c r="N44" s="3" t="n">
+        <v>0.03922930405129334</v>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>0.03149418877782498</v>
+      </c>
+      <c r="P44" s="3" t="n">
+        <v>-0.001513333421942517</v>
+      </c>
+      <c r="Q44" s="3" t="n">
+        <v>0.01633003018952293</v>
+      </c>
+      <c r="R44" s="3" t="n">
+        <v>0.4552289793660957</v>
+      </c>
+      <c r="S44" s="3" t="n">
+        <v>0.2133689233193978</v>
+      </c>
+      <c r="T44" s="3" t="n">
+        <v>0.1409504446284369</v>
+      </c>
+      <c r="U44" s="3" t="n">
+        <v>0.1298947989867679</v>
+      </c>
+      <c r="V44" s="3" t="n">
+        <v>0.02419318995600904</v>
+      </c>
+      <c r="W44" s="3" t="n">
+        <v>0.1505114012171336</v>
+      </c>
+      <c r="X44" s="3" t="n">
+        <v>-0.07551009671356881</v>
+      </c>
+      <c r="Y44" s="3" t="n">
+        <v>-0.03863764076027223</v>
+      </c>
+      <c r="Z44" s="3" t="n">
+        <v>-0.1607545276618705</v>
+      </c>
+      <c r="AA44" s="3" t="n">
+        <v>-6.282859377866415e-05</v>
+      </c>
+      <c r="AB44" s="3" t="n">
+        <v>-1.073859049196061e-05</v>
+      </c>
+      <c r="AC44" s="3" t="n">
+        <v>-0.0006614734040054152</v>
+      </c>
+      <c r="AD44" s="3" t="n">
+        <v>0.001007306308475452</v>
+      </c>
+      <c r="AE44" s="3" t="n">
+        <v>0.0007294429999208764</v>
+      </c>
+      <c r="AF44" s="3" t="n">
+        <v>2.126065403768409e-10</v>
+      </c>
+      <c r="AG44" s="3" t="n">
+        <v>1.926417533160997e-10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>TFC</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>-0.02632384320358152</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>-0.00147356442733387</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>-0.0001110361738166725</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>-0.0008165903986717666</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>-0.0002660920306912598</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>-0.0001410562742546665</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>4.609548119437945e-12</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>-2.464363549099131e-11</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>0.004825105466075045</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>0.07885114281954816</v>
+      </c>
+      <c r="L45" s="3" t="n">
+        <v>0.003403133381765352</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>0.04598932215579579</v>
+      </c>
+      <c r="N45" s="3" t="n">
+        <v>0.009224728170461664</v>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>0.003619469891575112</v>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>0.0006811473997110996</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>0.006595066430795598</v>
+      </c>
+      <c r="R45" s="3" t="n">
+        <v>0.1936580098291833</v>
+      </c>
+      <c r="S45" s="3" t="n">
+        <v>0.2091279929548988</v>
+      </c>
+      <c r="T45" s="3" t="n">
+        <v>0.1557237797263195</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>0.249394708762907</v>
+      </c>
+      <c r="V45" s="3" t="n">
+        <v>0.02983685603980733</v>
+      </c>
+      <c r="W45" s="3" t="n">
+        <v>0.1150850200809302</v>
+      </c>
+      <c r="X45" s="3" t="n">
+        <v>-0.01581729438259789</v>
+      </c>
+      <c r="Y45" s="3" t="n">
+        <v>0.0629909269885517</v>
+      </c>
+      <c r="Z45" s="3" t="n">
+        <v>-0.02691108342588535</v>
+      </c>
+      <c r="AA45" s="3" t="n">
+        <v>0.0009521293022020885</v>
+      </c>
+      <c r="AB45" s="3" t="n">
+        <v>-2.008489700582621e-05</v>
+      </c>
+      <c r="AC45" s="3" t="n">
+        <v>-0.0008390659759620935</v>
+      </c>
+      <c r="AD45" s="3" t="n">
+        <v>-0.0004043714951804936</v>
+      </c>
+      <c r="AE45" s="3" t="n">
+        <v>1.147449069690152e-05</v>
+      </c>
+      <c r="AF45" s="3" t="n">
+        <v>1.356970524868799e-10</v>
+      </c>
+      <c r="AG45" s="3" t="n">
+        <v>-1.909473096358539e-10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>-0.0687679004805767</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>-0.002386667913184642</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>-0.0001948721977679222</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>-0.001158482466603973</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>-0.0009584120388278185</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>-0.000122111066449231</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>2.610454172146494e-12</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>-1.303567573916432e-11</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>0.01216418799117779</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>0.1346199717145738</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>0.01128323645513925</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>0.06983269370177887</v>
+      </c>
+      <c r="N46" s="3" t="n">
+        <v>0.02832919621059575</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>0.008845096017003853</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>0.005237479933561174</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>0.01183566205436471</v>
+      </c>
+      <c r="R46" s="3" t="n">
+        <v>0.2240369941966919</v>
+      </c>
+      <c r="S46" s="3" t="n">
+        <v>0.218673735066558</v>
+      </c>
+      <c r="T46" s="3" t="n">
+        <v>0.1779234471015185</v>
+      </c>
+      <c r="U46" s="3" t="n">
+        <v>0.2261804727672228</v>
+      </c>
+      <c r="V46" s="3" t="n">
+        <v>0.07420544424833167</v>
+      </c>
+      <c r="W46" s="3" t="n">
+        <v>0.06474549636364538</v>
+      </c>
+      <c r="X46" s="3" t="n">
+        <v>-0.009683696360049609</v>
+      </c>
+      <c r="Y46" s="3" t="n">
+        <v>0.02391810661608129</v>
+      </c>
+      <c r="Z46" s="3" t="n">
+        <v>-0.0884232590409907</v>
+      </c>
+      <c r="AA46" s="3" t="n">
+        <v>0.0016936429635137</v>
+      </c>
+      <c r="AB46" s="3" t="n">
+        <v>-0.00022217340257543</v>
+      </c>
+      <c r="AC46" s="3" t="n">
+        <v>-0.0007852626029916732</v>
+      </c>
+      <c r="AD46" s="3" t="n">
+        <v>-0.001002760198618653</v>
+      </c>
+      <c r="AE46" s="3" t="n">
+        <v>0.0003528741702751364</v>
+      </c>
+      <c r="AF46" s="3" t="n">
+        <v>5.231123121093125e-11</v>
+      </c>
+      <c r="AG46" s="3" t="n">
+        <v>-9.127358407028595e-11</v>
       </c>
     </row>
   </sheetData>
